--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1421A869-56CB-B44C-B879-D4B43C067D43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405EB97-6DBC-1043-A2D9-F4310F72003D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -53,9 +53,6 @@
     <t>Jean- David  Nsilulu</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>Cotisation Speciale</t>
   </si>
   <si>
@@ -111,6 +108,9 @@
   </si>
   <si>
     <t>Devise</t>
+  </si>
+  <si>
+    <t>États-Unis</t>
   </si>
 </sst>
 </file>
@@ -645,7 +645,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,22 +659,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>15</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F1" s="11" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="14">
         <v>10</v>
@@ -703,10 +703,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D3" s="14">
         <v>10</v>
@@ -724,10 +724,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -745,10 +745,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D5" s="14">
         <v>10</v>
@@ -766,10 +766,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="D6" s="14">
         <v>10</v>
@@ -784,13 +784,13 @@
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D7" s="14">
         <v>10</v>
@@ -805,13 +805,13 @@
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D8" s="14">
         <v>10</v>
@@ -826,13 +826,13 @@
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="14">
         <v>10</v>
@@ -847,10 +847,10 @@
     </row>
     <row r="10" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B10" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="18">
@@ -871,7 +871,7 @@
       <c r="B11" s="21"/>
       <c r="C11" s="12"/>
       <c r="D11" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -885,7 +885,7 @@
       <c r="B12" s="21"/>
       <c r="C12" s="12"/>
       <c r="D12" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E12" s="13">
         <v>0</v>
@@ -899,7 +899,7 @@
       <c r="B13" s="21"/>
       <c r="C13" s="12"/>
       <c r="D13" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E13" s="13">
         <v>0</v>
@@ -910,13 +910,13 @@
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" s="23">
         <v>10</v>
@@ -950,7 +950,7 @@
       <c r="B16" s="13"/>
       <c r="C16" s="12"/>
       <c r="D16" s="22" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E16" s="13">
         <v>0</v>
@@ -961,10 +961,10 @@
     </row>
     <row r="17" spans="1:6" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B17" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C17" s="27"/>
       <c r="D17" s="28">

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B405EB97-6DBC-1043-A2D9-F4310F72003D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD056173-1CD0-3848-9DE7-84441B1DD91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Cotisation Speciale</t>
   </si>
   <si>
-    <t>Arsène</t>
-  </si>
-  <si>
     <t>Donat Bitazi</t>
   </si>
   <si>
@@ -68,9 +65,6 @@
     <t>Françoise Mankuika</t>
   </si>
   <si>
-    <t>Angleterre</t>
-  </si>
-  <si>
     <t>France</t>
   </si>
   <si>
@@ -86,9 +80,6 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>TOTAL ( Dollar)</t>
-  </si>
-  <si>
     <t>Marceline Mpoyi</t>
   </si>
   <si>
@@ -111,6 +102,27 @@
   </si>
   <si>
     <t>États-Unis</t>
+  </si>
+  <si>
+    <t>TOTAL (Dollar)</t>
+  </si>
+  <si>
+    <t>Dede Kavungu</t>
+  </si>
+  <si>
+    <t>Coco Mitouche</t>
+  </si>
+  <si>
+    <t>Mpulusu</t>
+  </si>
+  <si>
+    <t>Justin</t>
+  </si>
+  <si>
+    <t>Aise Ngeyitala</t>
+  </si>
+  <si>
+    <t>Dally Mvemba</t>
   </si>
 </sst>
 </file>
@@ -245,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -260,7 +272,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -306,6 +318,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,10 +657,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:I21"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -659,22 +674,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="E1" s="10" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -682,10 +697,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D2" s="14">
         <v>10</v>
@@ -703,10 +718,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D3" s="14">
         <v>10</v>
@@ -715,7 +730,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F9" si="0">SUM(D3,E3)</f>
+        <f t="shared" ref="F3:F7" si="0">SUM(D3,E3)</f>
         <v>10</v>
       </c>
     </row>
@@ -724,10 +739,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D4" s="14">
         <v>10</v>
@@ -745,10 +760,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D5" s="14">
         <v>10</v>
@@ -766,10 +781,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="D6" s="14">
         <v>10</v>
@@ -784,13 +799,13 @@
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="D7" s="14">
         <v>10</v>
@@ -803,67 +818,53 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C8" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="14">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
+    <row r="8" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="18">
+        <f>SUM(D2:D7)</f>
+        <v>60</v>
+      </c>
+      <c r="E8" s="18">
+        <f>SUM(E2,E7)</f>
+        <v>0</v>
+      </c>
+      <c r="F8" s="19">
+        <f>SUM(D8,E8)</f>
+        <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="D9" s="14">
-        <v>10</v>
-      </c>
-      <c r="E9" s="14">
-        <v>0</v>
-      </c>
-      <c r="F9" s="14">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18">
-        <f>SUM(D2:D9)</f>
-        <v>80</v>
-      </c>
-      <c r="E10" s="18">
-        <f>SUM(E2,E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <f>SUM(D10,E10)</f>
-        <v>80</v>
+      <c r="A9" s="20"/>
+      <c r="B9" s="21"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="20"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -871,7 +872,7 @@
       <c r="B11" s="21"/>
       <c r="C11" s="12"/>
       <c r="D11" s="22" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E11" s="13">
         <v>0</v>
@@ -880,133 +881,237 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="20"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20"/>
-      <c r="B13" s="21"/>
-      <c r="C13" s="12"/>
-      <c r="D13" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="13">
-        <v>0</v>
-      </c>
-      <c r="F13" s="13">
-        <v>0</v>
-      </c>
+    <row r="12" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A12" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="B12" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="23">
+        <v>10</v>
+      </c>
+      <c r="E12" s="24">
+        <v>0</v>
+      </c>
+      <c r="F12" s="25">
+        <f>SUM(D12,E12)</f>
+        <v>10</v>
+      </c>
+      <c r="I12" s="2"/>
+    </row>
+    <row r="13" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="23">
+        <v>10</v>
+      </c>
+      <c r="E13" s="24">
+        <v>0</v>
+      </c>
+      <c r="F13" s="25">
+        <v>10</v>
+      </c>
+      <c r="I13" s="30"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D14" s="23">
+        <v>10</v>
+      </c>
+      <c r="E14" s="24">
+        <v>0</v>
+      </c>
+      <c r="F14" s="25">
+        <v>10</v>
+      </c>
+      <c r="I14" s="30"/>
+    </row>
+    <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="23">
+        <v>10</v>
+      </c>
+      <c r="E15" s="24">
+        <v>0</v>
+      </c>
+      <c r="F15" s="25">
+        <v>10</v>
+      </c>
+      <c r="I15" s="30"/>
+    </row>
+    <row r="16" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A16" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D16" s="23">
+        <v>10</v>
+      </c>
+      <c r="E16" s="24">
+        <v>0</v>
+      </c>
+      <c r="F16" s="25">
+        <v>10</v>
+      </c>
+      <c r="I16" s="30"/>
+    </row>
+    <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A17" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D14" s="23">
-        <v>10</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <f>SUM(D14,E14)</f>
-        <v>10</v>
-      </c>
-      <c r="I14" s="2"/>
-    </row>
-    <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13"/>
-      <c r="C15" s="12"/>
-      <c r="D15" s="23">
-        <v>0</v>
-      </c>
-      <c r="E15" s="24">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>0</v>
-      </c>
-      <c r="I15" s="8"/>
-    </row>
-    <row r="16" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="12"/>
-      <c r="D16" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="E16" s="13">
-        <v>0</v>
-      </c>
-      <c r="F16" s="26">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="B17" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28">
-        <f>SUM(D14:D16)</f>
-        <v>10</v>
-      </c>
-      <c r="E17" s="29">
-        <f>SUM(E14:E16)</f>
+      <c r="D17" s="23">
+        <v>10</v>
+      </c>
+      <c r="E17" s="24">
         <v>0</v>
       </c>
       <c r="F17" s="25">
-        <f>SUM(D17,E17)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="1:6" ht="22" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="6"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="1:6" ht="22" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="6"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="1:6" ht="22" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="6"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="I17" s="30"/>
+    </row>
+    <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="23">
+        <v>10</v>
+      </c>
+      <c r="E18" s="24">
+        <v>0</v>
+      </c>
+      <c r="F18" s="25">
+        <v>10</v>
+      </c>
+      <c r="I18" s="30"/>
+    </row>
+    <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A19" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="23">
+        <v>10</v>
+      </c>
+      <c r="E19" s="24">
+        <v>0</v>
+      </c>
+      <c r="F19" s="25">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="12"/>
+      <c r="D20" s="22" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28">
+        <f>SUM(D12:D20)</f>
+        <v>80</v>
+      </c>
+      <c r="E21" s="29">
+        <f>SUM(E12:E20)</f>
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <f>SUM(D21,E21)</f>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="6"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="6"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD056173-1CD0-3848-9DE7-84441B1DD91D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E295E98-C76F-214D-A722-AC3C84140B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -257,7 +257,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -293,7 +293,6 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -313,7 +312,6 @@
     </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -321,6 +319,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -660,15 +667,16 @@
   <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.1640625" customWidth="1"/>
-    <col min="2" max="2" width="15.33203125" style="7" customWidth="1"/>
-    <col min="3" max="3" width="27.6640625" customWidth="1"/>
-    <col min="4" max="5" width="34" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="20.6640625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="29.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" customWidth="1"/>
     <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -679,7 +687,7 @@
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="29" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -699,7 +707,7 @@
       <c r="B2" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D2" s="14">
@@ -720,7 +728,7 @@
       <c r="B3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="12" t="s">
+      <c r="C3" s="13" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="14">
@@ -741,7 +749,7 @@
       <c r="B4" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D4" s="14">
@@ -762,7 +770,7 @@
       <c r="B5" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D5" s="14">
@@ -783,7 +791,7 @@
       <c r="B6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D6" s="14">
@@ -804,7 +812,7 @@
       <c r="B7" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="12" t="s">
+      <c r="C7" s="13" t="s">
         <v>21</v>
       </c>
       <c r="D7" s="14">
@@ -825,25 +833,25 @@
       <c r="B8" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18">
+      <c r="C8" s="30"/>
+      <c r="D8" s="17">
         <f>SUM(D2:D7)</f>
         <v>60</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="17">
         <f>SUM(E2,E7)</f>
         <v>0</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <f>SUM(D8,E8)</f>
         <v>60</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20"/>
-      <c r="B9" s="21"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="22" t="s">
+      <c r="A9" s="19"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="13"/>
+      <c r="D9" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E9" s="13">
@@ -854,10 +862,10 @@
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="20"/>
-      <c r="B10" s="21"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="22" t="s">
+      <c r="A10" s="19"/>
+      <c r="B10" s="20"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E10" s="13">
@@ -868,10 +876,10 @@
       </c>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="12"/>
-      <c r="D11" s="22" t="s">
+      <c r="A11" s="19"/>
+      <c r="B11" s="20"/>
+      <c r="C11" s="13"/>
+      <c r="D11" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E11" s="13">
@@ -888,16 +896,16 @@
       <c r="B12" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="23">
-        <v>10</v>
-      </c>
-      <c r="E12" s="24">
-        <v>0</v>
-      </c>
-      <c r="F12" s="25">
+      <c r="D12" s="22">
+        <v>10</v>
+      </c>
+      <c r="E12" s="23">
+        <v>0</v>
+      </c>
+      <c r="F12" s="24">
         <f>SUM(D12,E12)</f>
         <v>10</v>
       </c>
@@ -910,19 +918,19 @@
       <c r="B13" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="23">
-        <v>10</v>
-      </c>
-      <c r="E13" s="24">
-        <v>0</v>
-      </c>
-      <c r="F13" s="25">
-        <v>10</v>
-      </c>
-      <c r="I13" s="30"/>
+      <c r="D13" s="22">
+        <v>10</v>
+      </c>
+      <c r="E13" s="23">
+        <v>0</v>
+      </c>
+      <c r="F13" s="24">
+        <v>10</v>
+      </c>
+      <c r="I13" s="28"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
@@ -931,19 +939,19 @@
       <c r="B14" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="23">
-        <v>10</v>
-      </c>
-      <c r="E14" s="24">
-        <v>0</v>
-      </c>
-      <c r="F14" s="25">
-        <v>10</v>
-      </c>
-      <c r="I14" s="30"/>
+      <c r="D14" s="22">
+        <v>10</v>
+      </c>
+      <c r="E14" s="23">
+        <v>0</v>
+      </c>
+      <c r="F14" s="24">
+        <v>10</v>
+      </c>
+      <c r="I14" s="28"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
@@ -952,19 +960,19 @@
       <c r="B15" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="23">
-        <v>10</v>
-      </c>
-      <c r="E15" s="24">
-        <v>0</v>
-      </c>
-      <c r="F15" s="25">
-        <v>10</v>
-      </c>
-      <c r="I15" s="30"/>
+      <c r="D15" s="22">
+        <v>10</v>
+      </c>
+      <c r="E15" s="23">
+        <v>0</v>
+      </c>
+      <c r="F15" s="24">
+        <v>10</v>
+      </c>
+      <c r="I15" s="28"/>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
@@ -973,19 +981,19 @@
       <c r="B16" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="23">
-        <v>10</v>
-      </c>
-      <c r="E16" s="24">
-        <v>0</v>
-      </c>
-      <c r="F16" s="25">
-        <v>10</v>
-      </c>
-      <c r="I16" s="30"/>
+      <c r="D16" s="22">
+        <v>10</v>
+      </c>
+      <c r="E16" s="23">
+        <v>0</v>
+      </c>
+      <c r="F16" s="24">
+        <v>10</v>
+      </c>
+      <c r="I16" s="28"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
@@ -994,19 +1002,19 @@
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="23">
-        <v>10</v>
-      </c>
-      <c r="E17" s="24">
-        <v>0</v>
-      </c>
-      <c r="F17" s="25">
-        <v>10</v>
-      </c>
-      <c r="I17" s="30"/>
+      <c r="D17" s="22">
+        <v>10</v>
+      </c>
+      <c r="E17" s="23">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>10</v>
+      </c>
+      <c r="I17" s="28"/>
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
@@ -1015,19 +1023,19 @@
       <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="D18" s="23">
-        <v>10</v>
-      </c>
-      <c r="E18" s="24">
-        <v>0</v>
-      </c>
-      <c r="F18" s="25">
-        <v>10</v>
-      </c>
-      <c r="I18" s="30"/>
+      <c r="D18" s="22">
+        <v>10</v>
+      </c>
+      <c r="E18" s="23">
+        <v>0</v>
+      </c>
+      <c r="F18" s="24">
+        <v>10</v>
+      </c>
+      <c r="I18" s="28"/>
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
@@ -1036,16 +1044,16 @@
       <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="23">
-        <v>10</v>
-      </c>
-      <c r="E19" s="24">
-        <v>0</v>
-      </c>
-      <c r="F19" s="25">
+      <c r="D19" s="22">
+        <v>10</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
         <v>10</v>
       </c>
       <c r="I19" s="8"/>
@@ -1053,14 +1061,14 @@
     <row r="20" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12"/>
       <c r="B20" s="13"/>
-      <c r="C20" s="12"/>
-      <c r="D20" s="22" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="21" t="s">
         <v>18</v>
       </c>
       <c r="E20" s="13">
         <v>0</v>
       </c>
-      <c r="F20" s="26">
+      <c r="F20" s="25">
         <v>0</v>
       </c>
     </row>
@@ -1071,16 +1079,16 @@
       <c r="B21" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28">
+      <c r="C21" s="31"/>
+      <c r="D21" s="26">
         <f>SUM(D12:D20)</f>
         <v>80</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="27">
         <f>SUM(E12:E20)</f>
         <v>0</v>
       </c>
-      <c r="F21" s="25">
+      <c r="F21" s="24">
         <f>SUM(D21,E21)</f>
         <v>80</v>
       </c>
@@ -1088,28 +1096,28 @@
     <row r="22" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="6"/>
-      <c r="C22" s="1"/>
+      <c r="C22" s="6"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
-      <c r="C23" s="1"/>
+      <c r="C23" s="6"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="1"/>
+      <c r="C24" s="6"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="1"/>
+      <c r="C25" s="6"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E295E98-C76F-214D-A722-AC3C84140B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25D757-ABC4-3A4E-9A67-367A9D5D9738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Coco Mitouche</t>
   </si>
   <si>
-    <t>Mpulusu</t>
-  </si>
-  <si>
     <t>Justin</t>
   </si>
   <si>
@@ -123,6 +120,12 @@
   </si>
   <si>
     <t>Dally Mvemba</t>
+  </si>
+  <si>
+    <t>Jason Tamba</t>
+  </si>
+  <si>
+    <t>Arsène Mpulusu</t>
   </si>
 </sst>
 </file>
@@ -257,7 +260,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,9 +319,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -664,10 +664,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -687,7 +687,7 @@
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="11" t="s">
@@ -738,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="F3" s="14">
-        <f t="shared" ref="F3:F7" si="0">SUM(D3,E3)</f>
+        <f t="shared" ref="F3:F8" si="0">SUM(D3,E3)</f>
         <v>10</v>
       </c>
     </row>
@@ -807,7 +807,7 @@
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="13" t="s">
         <v>16</v>
@@ -826,39 +826,46 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="14">
+        <v>10</v>
+      </c>
+      <c r="E8" s="14">
+        <v>0</v>
+      </c>
+      <c r="F8" s="14">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A9" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B9" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="17">
-        <f>SUM(D2:D7)</f>
-        <v>60</v>
-      </c>
-      <c r="E8" s="17">
-        <f>SUM(E2,E7)</f>
-        <v>0</v>
-      </c>
-      <c r="F8" s="18">
-        <f>SUM(D8,E8)</f>
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="19"/>
-      <c r="B9" s="20"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="13">
-        <v>0</v>
-      </c>
-      <c r="F9" s="13">
-        <v>0</v>
+      <c r="C9" s="29"/>
+      <c r="D9" s="17">
+        <f>SUM(D2:D8)</f>
+        <v>70</v>
+      </c>
+      <c r="E9" s="17">
+        <f>SUM(E2,E8)</f>
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <f>SUM(D9,E9)</f>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -889,31 +896,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B12" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" s="22">
-        <v>10</v>
-      </c>
-      <c r="E12" s="23">
-        <v>0</v>
-      </c>
-      <c r="F12" s="24">
-        <f>SUM(D12,E12)</f>
-        <v>10</v>
-      </c>
-      <c r="I12" s="2"/>
+    <row r="12" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="19"/>
+      <c r="B12" s="20"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B13" s="13" t="s">
         <v>17</v>
@@ -928,13 +927,14 @@
         <v>0</v>
       </c>
       <c r="F13" s="24">
-        <v>10</v>
-      </c>
-      <c r="I13" s="28"/>
+        <f>SUM(D13,E13)</f>
+        <v>10</v>
+      </c>
+      <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>17</v>
@@ -951,11 +951,11 @@
       <c r="F14" s="24">
         <v>10</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>17</v>
@@ -972,7 +972,7 @@
       <c r="F15" s="24">
         <v>10</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
@@ -993,11 +993,11 @@
       <c r="F16" s="24">
         <v>10</v>
       </c>
-      <c r="I16" s="28"/>
+      <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>17</v>
@@ -1014,11 +1014,11 @@
       <c r="F17" s="24">
         <v>10</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>17</v>
@@ -1035,72 +1035,86 @@
       <c r="F18" s="24">
         <v>10</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" s="22">
+        <v>10</v>
+      </c>
+      <c r="E19" s="23">
+        <v>0</v>
+      </c>
+      <c r="F19" s="24">
+        <v>10</v>
+      </c>
+      <c r="I19" s="8"/>
+    </row>
+    <row r="20" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A20" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="D19" s="22">
-        <v>10</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24">
-        <v>10</v>
-      </c>
-      <c r="I19" s="8"/>
-    </row>
-    <row r="20" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="21" t="s">
+      <c r="D20" s="22">
+        <v>10</v>
+      </c>
+      <c r="E20" s="23">
+        <v>0</v>
+      </c>
+      <c r="F20" s="24">
+        <v>10</v>
+      </c>
+      <c r="I20" s="8"/>
+    </row>
+    <row r="21" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12"/>
+      <c r="B21" s="13"/>
+      <c r="C21" s="13"/>
+      <c r="D21" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="13">
-        <v>0</v>
-      </c>
-      <c r="F20" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="15" t="s">
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="26">
-        <f>SUM(D12:D20)</f>
+      <c r="C22" s="30"/>
+      <c r="D22" s="26">
+        <f>SUM(D13:D21)</f>
         <v>80</v>
       </c>
-      <c r="E21" s="27">
-        <f>SUM(E12:E20)</f>
-        <v>0</v>
-      </c>
-      <c r="F21" s="24">
-        <f>SUM(D21,E21)</f>
+      <c r="E22" s="27">
+        <f>SUM(E13:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="24">
+        <f>SUM(D22,E22)</f>
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
@@ -1121,6 +1135,13 @@
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
+    <row r="26" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A26" s="1"/>
+      <c r="B26" s="6"/>
+      <c r="C26" s="6"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F25D757-ABC4-3A4E-9A67-367A9D5D9738}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBF88FD-CEDB-BE45-9012-F426E40FDFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -126,6 +126,15 @@
   </si>
   <si>
     <t>Arsène Mpulusu</t>
+  </si>
+  <si>
+    <t>Rose Mankuika</t>
+  </si>
+  <si>
+    <t>Leopold Ngoma</t>
+  </si>
+  <si>
+    <t>Charlotte Nsongo</t>
   </si>
 </sst>
 </file>
@@ -260,7 +269,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -328,6 +337,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -664,10 +676,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -677,7 +689,7 @@
     <col min="3" max="3" width="20.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
     <col min="5" max="5" width="30.6640625" customWidth="1"/>
-    <col min="6" max="6" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -934,7 +946,7 @@
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B14" s="13" t="s">
         <v>17</v>
@@ -951,11 +963,11 @@
       <c r="F14" s="24">
         <v>10</v>
       </c>
-      <c r="I14" s="8"/>
+      <c r="I14" s="31"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="12" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B15" s="13" t="s">
         <v>17</v>
@@ -976,7 +988,7 @@
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="12" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B16" s="13" t="s">
         <v>17</v>
@@ -997,13 +1009,13 @@
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="12" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D17" s="22">
         <v>10</v>
@@ -1018,13 +1030,13 @@
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="12" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B18" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D18" s="22">
         <v>10</v>
@@ -1039,7 +1051,7 @@
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="12" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B19" s="13" t="s">
         <v>17</v>
@@ -1060,88 +1072,151 @@
     </row>
     <row r="20" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B20" s="13" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D20" s="22">
         <v>10</v>
       </c>
       <c r="E20" s="23">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F20" s="24">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="I20" s="8"/>
     </row>
-    <row r="21" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="13"/>
-      <c r="D21" s="21" t="s">
+    <row r="21" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="22">
+        <v>10</v>
+      </c>
+      <c r="E21" s="23">
+        <v>0</v>
+      </c>
+      <c r="F21" s="24">
+        <v>10</v>
+      </c>
+      <c r="I21" s="8"/>
+    </row>
+    <row r="22" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A22" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="B22" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" s="22">
+        <v>10</v>
+      </c>
+      <c r="E22" s="23">
+        <v>0</v>
+      </c>
+      <c r="F22" s="24">
+        <v>10</v>
+      </c>
+      <c r="I22" s="8"/>
+    </row>
+    <row r="23" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A23" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="D23" s="22">
+        <v>10</v>
+      </c>
+      <c r="E23" s="23">
+        <v>0</v>
+      </c>
+      <c r="F23" s="24">
+        <v>10</v>
+      </c>
+      <c r="I23" s="8"/>
+    </row>
+    <row r="24" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="E21" s="13">
-        <v>0</v>
-      </c>
-      <c r="F21" s="25">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="15" t="s">
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="B22" s="16" t="s">
+      <c r="B25" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="26">
-        <f>SUM(D13:D21)</f>
-        <v>80</v>
-      </c>
-      <c r="E22" s="27">
-        <f>SUM(E13:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="24">
-        <f>SUM(D22,E22)</f>
-        <v>80</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="6"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="6"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="1"/>
-      <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="6"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="C25" s="30"/>
+      <c r="D25" s="26">
+        <f>SUM(D13:D24)</f>
+        <v>110</v>
+      </c>
+      <c r="E25" s="27">
+        <f>SUM(E13:E24)</f>
+        <v>50</v>
+      </c>
+      <c r="F25" s="24">
+        <f>SUM(D25,E25)</f>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
+    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A27" s="1"/>
+      <c r="B27" s="6"/>
+      <c r="C27" s="6"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A28" s="1"/>
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A29" s="1"/>
+      <c r="B29" s="6"/>
+      <c r="C29" s="6"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11110"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBF88FD-CEDB-BE45-9012-F426E40FDFB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EC710-17F5-C449-A1CE-F0AF8BD4BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -141,9 +141,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
@@ -269,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -290,9 +289,6 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -319,17 +315,11 @@
     <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -339,9 +329,17 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="4" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -678,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -688,7 +686,7 @@
     <col min="2" max="2" width="13.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="32" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -699,492 +697,492 @@
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="14">
-        <v>10</v>
-      </c>
-      <c r="E2" s="14">
-        <v>0</v>
-      </c>
-      <c r="F2" s="14">
+      <c r="C2" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="13">
+        <v>10</v>
+      </c>
+      <c r="E2" s="13">
+        <v>0</v>
+      </c>
+      <c r="F2" s="13">
         <f>SUM(D2,E2)</f>
         <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="14">
-        <v>10</v>
-      </c>
-      <c r="E3" s="14">
-        <v>0</v>
-      </c>
-      <c r="F3" s="14">
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="13">
+        <v>10</v>
+      </c>
+      <c r="E3" s="13">
+        <v>0</v>
+      </c>
+      <c r="F3" s="13">
         <f t="shared" ref="F3:F8" si="0">SUM(D3,E3)</f>
         <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D4" s="14">
-        <v>10</v>
-      </c>
-      <c r="E4" s="14">
-        <v>0</v>
-      </c>
-      <c r="F4" s="14">
+      <c r="D4" s="13">
+        <v>10</v>
+      </c>
+      <c r="E4" s="13">
+        <v>50</v>
+      </c>
+      <c r="F4" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="12" t="s">
+      <c r="A5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="B5" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="14">
-        <v>10</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0</v>
-      </c>
-      <c r="F5" s="14">
+      <c r="D5" s="13">
+        <v>10</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="12" t="s">
+      <c r="A6" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D6" s="14">
-        <v>10</v>
-      </c>
-      <c r="E6" s="14">
-        <v>0</v>
-      </c>
-      <c r="F6" s="14">
+      <c r="D6" s="13">
+        <v>10</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="13" t="s">
+      <c r="B7" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D7" s="14">
-        <v>10</v>
-      </c>
-      <c r="E7" s="14">
-        <v>0</v>
-      </c>
-      <c r="F7" s="14">
+      <c r="D7" s="13">
+        <v>10</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="12" t="s">
+      <c r="A8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="13" t="s">
+      <c r="B8" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="14">
-        <v>10</v>
-      </c>
-      <c r="E8" s="14">
-        <v>0</v>
-      </c>
-      <c r="F8" s="14">
+      <c r="D8" s="13">
+        <v>10</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="16" t="s">
+      <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="17">
+      <c r="C9" s="26"/>
+      <c r="D9" s="16">
         <f>SUM(D2:D8)</f>
         <v>70</v>
       </c>
-      <c r="E9" s="17">
-        <f>SUM(E2,E8)</f>
-        <v>0</v>
-      </c>
-      <c r="F9" s="18">
-        <f>SUM(D9,E9)</f>
-        <v>70</v>
+      <c r="E9" s="16">
+        <f>SUM(E2:E8)</f>
+        <v>50</v>
+      </c>
+      <c r="F9" s="17">
+        <f>SUM(F2:F8)</f>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="19"/>
-      <c r="B10" s="20"/>
-      <c r="C10" s="13"/>
-      <c r="D10" s="21" t="s">
+      <c r="A10" s="18"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="13">
-        <v>0</v>
-      </c>
-      <c r="F10" s="13">
+      <c r="E10" s="29">
+        <v>0</v>
+      </c>
+      <c r="F10" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="19"/>
-      <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
-      <c r="D11" s="21" t="s">
+      <c r="A11" s="18"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="13">
-        <v>0</v>
-      </c>
-      <c r="F11" s="13">
+      <c r="E11" s="29">
+        <v>0</v>
+      </c>
+      <c r="F11" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="19"/>
-      <c r="B12" s="20"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="21" t="s">
+      <c r="A12" s="18"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="13">
-        <v>0</v>
-      </c>
-      <c r="F12" s="13">
+      <c r="E12" s="29">
+        <v>0</v>
+      </c>
+      <c r="F12" s="12">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A13" s="12" t="s">
+      <c r="A13" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B13" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C13" s="13" t="s">
+      <c r="C13" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="22">
-        <v>10</v>
-      </c>
-      <c r="E13" s="23">
-        <v>0</v>
-      </c>
-      <c r="F13" s="24">
+      <c r="D13" s="21">
+        <v>10</v>
+      </c>
+      <c r="E13" s="29">
+        <v>0</v>
+      </c>
+      <c r="F13" s="22">
         <f>SUM(D13,E13)</f>
         <v>10</v>
       </c>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="13" t="s">
+      <c r="B14" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C14" s="13" t="s">
+      <c r="C14" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="22">
-        <v>10</v>
-      </c>
-      <c r="E14" s="23">
-        <v>0</v>
-      </c>
-      <c r="F14" s="24">
-        <v>10</v>
-      </c>
-      <c r="I14" s="31"/>
+      <c r="D14" s="21">
+        <v>10</v>
+      </c>
+      <c r="E14" s="29">
+        <v>0</v>
+      </c>
+      <c r="F14" s="22">
+        <v>10</v>
+      </c>
+      <c r="I14" s="8"/>
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B15" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="13" t="s">
+      <c r="C15" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D15" s="22">
-        <v>10</v>
-      </c>
-      <c r="E15" s="23">
-        <v>0</v>
-      </c>
-      <c r="F15" s="24">
+      <c r="D15" s="21">
+        <v>10</v>
+      </c>
+      <c r="E15" s="29">
+        <v>0</v>
+      </c>
+      <c r="F15" s="22">
         <v>10</v>
       </c>
       <c r="I15" s="8"/>
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="B16" s="13" t="s">
+      <c r="B16" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C16" s="13" t="s">
+      <c r="C16" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="22">
-        <v>10</v>
-      </c>
-      <c r="E16" s="23">
-        <v>0</v>
-      </c>
-      <c r="F16" s="24">
+      <c r="D16" s="21">
+        <v>10</v>
+      </c>
+      <c r="E16" s="29">
+        <v>0</v>
+      </c>
+      <c r="F16" s="22">
         <v>10</v>
       </c>
       <c r="I16" s="8"/>
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="B17" s="13" t="s">
+      <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="22">
-        <v>10</v>
-      </c>
-      <c r="E17" s="23">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="D17" s="21">
+        <v>10</v>
+      </c>
+      <c r="E17" s="29">
+        <v>0</v>
+      </c>
+      <c r="F17" s="22">
         <v>10</v>
       </c>
       <c r="I17" s="8"/>
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="12" t="s">
+      <c r="A18" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="13" t="s">
+      <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C18" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="22">
-        <v>10</v>
-      </c>
-      <c r="E18" s="23">
-        <v>0</v>
-      </c>
-      <c r="F18" s="24">
+      <c r="D18" s="21">
+        <v>10</v>
+      </c>
+      <c r="E18" s="29">
+        <v>0</v>
+      </c>
+      <c r="F18" s="22">
         <v>10</v>
       </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="12" t="s">
+      <c r="A19" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B19" s="13" t="s">
+      <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C19" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D19" s="22">
-        <v>10</v>
-      </c>
-      <c r="E19" s="23">
-        <v>0</v>
-      </c>
-      <c r="F19" s="24">
+      <c r="D19" s="21">
+        <v>10</v>
+      </c>
+      <c r="E19" s="29">
+        <v>0</v>
+      </c>
+      <c r="F19" s="22">
         <v>10</v>
       </c>
       <c r="I19" s="8"/>
     </row>
     <row r="20" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A20" s="12" t="s">
+      <c r="A20" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="13" t="s">
+      <c r="C20" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D20" s="22">
-        <v>10</v>
-      </c>
-      <c r="E20" s="23">
+      <c r="D20" s="21">
+        <v>10</v>
+      </c>
+      <c r="E20" s="29">
         <v>50</v>
       </c>
-      <c r="F20" s="24">
+      <c r="F20" s="22">
         <v>60</v>
       </c>
       <c r="I20" s="8"/>
     </row>
     <row r="21" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="12" t="s">
+      <c r="A21" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="B21" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="13" t="s">
+      <c r="C21" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D21" s="22">
-        <v>10</v>
-      </c>
-      <c r="E21" s="23">
-        <v>0</v>
-      </c>
-      <c r="F21" s="24">
+      <c r="D21" s="21">
+        <v>10</v>
+      </c>
+      <c r="E21" s="29">
+        <v>0</v>
+      </c>
+      <c r="F21" s="22">
         <v>10</v>
       </c>
       <c r="I21" s="8"/>
     </row>
     <row r="22" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A22" s="12" t="s">
+      <c r="A22" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="B22" s="13" t="s">
+      <c r="B22" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C22" s="13" t="s">
+      <c r="C22" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D22" s="22">
-        <v>10</v>
-      </c>
-      <c r="E22" s="23">
-        <v>0</v>
-      </c>
-      <c r="F22" s="24">
+      <c r="D22" s="21">
+        <v>10</v>
+      </c>
+      <c r="E22" s="29">
+        <v>0</v>
+      </c>
+      <c r="F22" s="22">
         <v>10</v>
       </c>
       <c r="I22" s="8"/>
     </row>
     <row r="23" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A23" s="12" t="s">
+      <c r="A23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="13" t="s">
+      <c r="B23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C23" s="13" t="s">
+      <c r="C23" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D23" s="22">
-        <v>10</v>
-      </c>
-      <c r="E23" s="23">
-        <v>0</v>
-      </c>
-      <c r="F23" s="24">
+      <c r="D23" s="21">
+        <v>10</v>
+      </c>
+      <c r="E23" s="29">
+        <v>0</v>
+      </c>
+      <c r="F23" s="22">
         <v>10</v>
       </c>
       <c r="I23" s="8"/>
     </row>
     <row r="24" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="21" t="s">
+      <c r="A24" s="11"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="13">
-        <v>0</v>
-      </c>
-      <c r="F24" s="25">
+      <c r="E24" s="29">
+        <v>0</v>
+      </c>
+      <c r="F24" s="23">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="15" t="s">
+      <c r="A25" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="C25" s="30"/>
-      <c r="D25" s="26">
+      <c r="C25" s="27"/>
+      <c r="D25" s="24">
         <f>SUM(D13:D24)</f>
         <v>110</v>
       </c>
-      <c r="E25" s="27">
+      <c r="E25" s="30">
         <f>SUM(E13:E24)</f>
         <v>50</v>
       </c>
-      <c r="F25" s="24">
+      <c r="F25" s="22">
         <f>SUM(D25,E25)</f>
         <v>160</v>
       </c>
@@ -1194,28 +1192,28 @@
       <c r="B26" s="6"/>
       <c r="C26" s="6"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
+      <c r="E26" s="31"/>
     </row>
     <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="B27" s="6"/>
       <c r="C27" s="6"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="1"/>
+      <c r="E27" s="31"/>
     </row>
     <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="B28" s="6"/>
       <c r="C28" s="6"/>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="31"/>
     </row>
     <row r="29" spans="1:9" ht="22" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="6"/>
       <c r="C29" s="6"/>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="31"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BF9EC710-17F5-C449-A1CE-F0AF8BD4BDD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55BDF8-97FF-4B47-9D53-BB49C624D57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -143,7 +143,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -312,12 +312,12 @@
     <xf numFmtId="49" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -676,8 +676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:I29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -808,11 +808,11 @@
         <v>10</v>
       </c>
       <c r="E6" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -871,11 +871,11 @@
       </c>
       <c r="E9" s="16">
         <f>SUM(E2:E8)</f>
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="F9" s="17">
         <f>SUM(F2:F8)</f>
-        <v>120</v>
+        <v>170</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C55BDF8-97FF-4B47-9D53-BB49C624D57A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72028743-EC95-2D43-AEF7-BBD1CC3A8762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -135,6 +135,21 @@
   </si>
   <si>
     <t>Charlotte Nsongo</t>
+  </si>
+  <si>
+    <t>Daniel Meboya</t>
+  </si>
+  <si>
+    <t>Uganda</t>
+  </si>
+  <si>
+    <t>Germaine Nsenga</t>
+  </si>
+  <si>
+    <t>Nico Buluzi</t>
+  </si>
+  <si>
+    <t>Jose Nzayambela</t>
   </si>
 </sst>
 </file>
@@ -268,7 +283,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -316,7 +331,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -333,9 +347,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="4" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -674,10 +685,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -686,7 +697,7 @@
     <col min="2" max="2" width="13.83203125" style="7" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="7" customWidth="1"/>
     <col min="4" max="4" width="29.6640625" customWidth="1"/>
-    <col min="5" max="5" width="30.6640625" style="32" customWidth="1"/>
+    <col min="5" max="5" width="30.6640625" style="30" customWidth="1"/>
     <col min="6" max="6" width="13.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -697,13 +708,13 @@
       <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="25" t="s">
+      <c r="C1" s="24" t="s">
         <v>12</v>
       </c>
       <c r="D1" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="10" t="s">
@@ -864,7 +875,7 @@
       <c r="B9" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="26"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="16">
         <f>SUM(D2:D8)</f>
         <v>70</v>
@@ -885,7 +896,7 @@
       <c r="D10" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="29">
+      <c r="E10" s="28">
         <v>0</v>
       </c>
       <c r="F10" s="12">
@@ -899,7 +910,7 @@
       <c r="D11" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="29">
+      <c r="E11" s="28">
         <v>0</v>
       </c>
       <c r="F11" s="12">
@@ -913,7 +924,7 @@
       <c r="D12" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E12" s="29">
+      <c r="E12" s="28">
         <v>0</v>
       </c>
       <c r="F12" s="12">
@@ -933,7 +944,7 @@
       <c r="D13" s="21">
         <v>10</v>
       </c>
-      <c r="E13" s="29">
+      <c r="E13" s="21">
         <v>0</v>
       </c>
       <c r="F13" s="22">
@@ -955,7 +966,7 @@
       <c r="D14" s="21">
         <v>10</v>
       </c>
-      <c r="E14" s="29">
+      <c r="E14" s="21">
         <v>0</v>
       </c>
       <c r="F14" s="22">
@@ -976,7 +987,7 @@
       <c r="D15" s="21">
         <v>10</v>
       </c>
-      <c r="E15" s="29">
+      <c r="E15" s="21">
         <v>0</v>
       </c>
       <c r="F15" s="22">
@@ -997,7 +1008,7 @@
       <c r="D16" s="21">
         <v>10</v>
       </c>
-      <c r="E16" s="29">
+      <c r="E16" s="21">
         <v>0</v>
       </c>
       <c r="F16" s="22">
@@ -1007,18 +1018,16 @@
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="C17" s="12" t="s">
-        <v>9</v>
-      </c>
+      <c r="C17" s="12"/>
       <c r="D17" s="21">
         <v>10</v>
       </c>
-      <c r="E17" s="29">
+      <c r="E17" s="21">
         <v>0</v>
       </c>
       <c r="F17" s="22">
@@ -1028,39 +1037,40 @@
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="B18" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>9</v>
+        <v>34</v>
       </c>
       <c r="D18" s="21">
-        <v>10</v>
-      </c>
-      <c r="E18" s="29">
-        <v>0</v>
+        <v>0</v>
+      </c>
+      <c r="E18" s="21">
+        <v>50</v>
       </c>
       <c r="F18" s="22">
-        <v>10</v>
+        <f>SUM(D18,E18)</f>
+        <v>50</v>
       </c>
       <c r="I18" s="8"/>
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D19" s="21">
         <v>10</v>
       </c>
-      <c r="E19" s="29">
+      <c r="E19" s="21">
         <v>0</v>
       </c>
       <c r="F19" s="22">
@@ -1070,18 +1080,18 @@
     </row>
     <row r="20" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B20" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D20" s="21">
         <v>10</v>
       </c>
-      <c r="E20" s="29">
+      <c r="E20" s="21">
         <v>50</v>
       </c>
       <c r="F20" s="22">
@@ -1091,18 +1101,18 @@
     </row>
     <row r="21" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D21" s="21">
         <v>10</v>
       </c>
-      <c r="E21" s="29">
+      <c r="E21" s="21">
         <v>0</v>
       </c>
       <c r="F21" s="22">
@@ -1112,18 +1122,18 @@
     </row>
     <row r="22" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>17</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D22" s="21">
         <v>10</v>
       </c>
-      <c r="E22" s="29">
+      <c r="E22" s="21">
         <v>0</v>
       </c>
       <c r="F22" s="22">
@@ -1133,7 +1143,7 @@
     </row>
     <row r="23" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>17</v>
@@ -1144,7 +1154,7 @@
       <c r="D23" s="21">
         <v>10</v>
       </c>
-      <c r="E23" s="29">
+      <c r="E23" s="21">
         <v>0</v>
       </c>
       <c r="F23" s="22">
@@ -1152,68 +1162,152 @@
       </c>
       <c r="I23" s="8"/>
     </row>
-    <row r="24" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A24" s="11"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
-      <c r="D24" s="20" t="s">
+    <row r="24" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A24" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C24" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D24" s="21">
+        <v>10</v>
+      </c>
+      <c r="E24" s="21">
+        <v>50</v>
+      </c>
+      <c r="F24" s="22">
+        <v>60</v>
+      </c>
+      <c r="I24" s="8"/>
+    </row>
+    <row r="25" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A25" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="B25" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" s="21">
+        <v>10</v>
+      </c>
+      <c r="E25" s="21">
+        <v>0</v>
+      </c>
+      <c r="F25" s="22">
+        <v>10</v>
+      </c>
+      <c r="I25" s="8"/>
+    </row>
+    <row r="26" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B26" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D26" s="21">
+        <v>10</v>
+      </c>
+      <c r="E26" s="21">
+        <v>0</v>
+      </c>
+      <c r="F26" s="22">
+        <v>10</v>
+      </c>
+      <c r="I26" s="8"/>
+    </row>
+    <row r="27" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A27" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D27" s="21">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21">
+        <v>0</v>
+      </c>
+      <c r="F27" s="22">
+        <v>10</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11"/>
+      <c r="B28" s="12"/>
+      <c r="C28" s="12"/>
+      <c r="D28" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E24" s="29">
-        <v>0</v>
-      </c>
-      <c r="F24" s="23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A25" s="14" t="s">
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C25" s="27"/>
-      <c r="D25" s="24">
-        <f>SUM(D13:D24)</f>
-        <v>110</v>
-      </c>
-      <c r="E25" s="30">
-        <f>SUM(E13:E24)</f>
-        <v>50</v>
-      </c>
-      <c r="F25" s="22">
-        <f>SUM(D25,E25)</f>
-        <v>160</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="31"/>
-    </row>
-    <row r="27" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="6"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="31"/>
-    </row>
-    <row r="28" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="A28" s="1"/>
-      <c r="B28" s="6"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="1"/>
-      <c r="E28" s="31"/>
-    </row>
-    <row r="29" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="A29" s="1"/>
-      <c r="B29" s="6"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="31"/>
+      <c r="B29" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="23">
+        <f>SUM(D13:D28)</f>
+        <v>140</v>
+      </c>
+      <c r="E29" s="23">
+        <f>SUM(E13:E28)</f>
+        <v>150</v>
+      </c>
+      <c r="F29" s="22">
+        <f>SUM(D29,E29)</f>
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1"/>
+      <c r="B30" s="6"/>
+      <c r="C30" s="6"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A31" s="1"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="6"/>
+      <c r="D31" s="1"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="A32" s="1"/>
+      <c r="B32" s="6"/>
+      <c r="C32" s="6"/>
+      <c r="D32" s="1"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72028743-EC95-2D43-AEF7-BBD1CC3A8762}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA9FB33-4E86-734F-9364-BA576CF804B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -113,9 +113,6 @@
     <t>Coco Mitouche</t>
   </si>
   <si>
-    <t>Justin</t>
-  </si>
-  <si>
     <t>Aise Ngeyitala</t>
   </si>
   <si>
@@ -150,6 +147,9 @@
   </si>
   <si>
     <t>Jose Nzayambela</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Justin Kulabuna </t>
   </si>
 </sst>
 </file>
@@ -687,8 +687,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:I33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -828,7 +828,7 @@
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B7" s="12" t="s">
         <v>16</v>
@@ -849,7 +849,7 @@
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="12" t="s">
         <v>16</v>
@@ -955,7 +955,7 @@
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B14" s="12" t="s">
         <v>17</v>
@@ -976,7 +976,7 @@
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" s="12" t="s">
         <v>17</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B17" s="12" t="s">
         <v>17</v>
@@ -1037,13 +1037,13 @@
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="12" t="s">
         <v>33</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>34</v>
       </c>
       <c r="D18" s="21">
         <v>0</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="12" t="s">
         <v>17</v>
@@ -1101,7 +1101,7 @@
     </row>
     <row r="21" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B21" s="12" t="s">
         <v>17</v>
@@ -1122,7 +1122,7 @@
     </row>
     <row r="22" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B22" s="12" t="s">
         <v>17</v>
@@ -1143,7 +1143,7 @@
     </row>
     <row r="23" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B23" s="12" t="s">
         <v>17</v>
@@ -1164,7 +1164,7 @@
     </row>
     <row r="24" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B24" s="12" t="s">
         <v>17</v>
@@ -1185,7 +1185,7 @@
     </row>
     <row r="25" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B25" s="12" t="s">
         <v>17</v>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA9FB33-4E86-734F-9364-BA576CF804B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF0ABBE-BF68-C24A-88B6-4AE7782AF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -150,6 +150,15 @@
   </si>
   <si>
     <t xml:space="preserve">Justin Kulabuna </t>
+  </si>
+  <si>
+    <t>Valentin Kitemoko</t>
+  </si>
+  <si>
+    <t>Allemagne</t>
+  </si>
+  <si>
+    <t>Joscky  Wasukama</t>
   </si>
 </sst>
 </file>
@@ -685,10 +694,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1227,75 +1236,103 @@
     </row>
     <row r="27" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="21">
+        <v>10</v>
+      </c>
+      <c r="E27" s="21">
+        <v>50</v>
+      </c>
+      <c r="F27" s="22">
+        <v>60</v>
+      </c>
+      <c r="I27" s="8"/>
+    </row>
+    <row r="28" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A28" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="B27" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C27" s="12" t="s">
+      <c r="B28" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D27" s="21">
-        <v>10</v>
-      </c>
-      <c r="E27" s="21">
-        <v>0</v>
-      </c>
-      <c r="F27" s="22">
-        <v>10</v>
-      </c>
-      <c r="I27" s="8"/>
-    </row>
-    <row r="28" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="11"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="20" t="s">
+      <c r="D28" s="21">
+        <v>10</v>
+      </c>
+      <c r="E28" s="21">
+        <v>0</v>
+      </c>
+      <c r="F28" s="22">
+        <v>10</v>
+      </c>
+      <c r="I28" s="8"/>
+    </row>
+    <row r="29" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A29" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B29" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D29" s="21">
+        <v>10</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0</v>
+      </c>
+      <c r="F29" s="22">
+        <v>10</v>
+      </c>
+      <c r="I29" s="8"/>
+    </row>
+    <row r="30" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11"/>
+      <c r="B30" s="12"/>
+      <c r="C30" s="12"/>
+      <c r="D30" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="E28" s="21">
-        <v>0</v>
-      </c>
-      <c r="F28" s="22" t="s">
+      <c r="E30" s="21">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A29" s="14" t="s">
+    <row r="31" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="15" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29" s="26"/>
-      <c r="D29" s="23">
-        <f>SUM(D13:D28)</f>
-        <v>140</v>
-      </c>
-      <c r="E29" s="23">
-        <f>SUM(E13:E28)</f>
-        <v>150</v>
-      </c>
-      <c r="F29" s="22">
-        <f>SUM(D29,E29)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="1"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="1"/>
-      <c r="E30" s="29"/>
-    </row>
-    <row r="31" spans="1:9" ht="22" x14ac:dyDescent="0.3">
-      <c r="A31" s="1"/>
-      <c r="B31" s="6"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="1"/>
-      <c r="E31" s="29"/>
-    </row>
-    <row r="32" spans="1:9" ht="22" x14ac:dyDescent="0.3">
+      <c r="B31" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="26"/>
+      <c r="D31" s="23">
+        <f>SUM(D13:D30)</f>
+        <v>160</v>
+      </c>
+      <c r="E31" s="23">
+        <f>SUM(E13:E30)</f>
+        <v>200</v>
+      </c>
+      <c r="F31" s="22">
+        <f>SUM(D31,E31)</f>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="6"/>
       <c r="C32" s="6"/>
@@ -1309,6 +1346,20 @@
       <c r="D33" s="1"/>
       <c r="E33" s="29"/>
     </row>
+    <row r="34" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="29"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF0ABBE-BF68-C24A-88B6-4AE7782AF7D8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6147BEA-BB48-9443-8240-F380B1FEA722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -44,9 +44,6 @@
     <t>Pascal Mieluzeyi</t>
   </si>
   <si>
-    <t>Remy Miantezila</t>
-  </si>
-  <si>
     <t>JP Miankodila</t>
   </si>
   <si>
@@ -128,9 +125,6 @@
     <t>Rose Mankuika</t>
   </si>
   <si>
-    <t>Leopold Ngoma</t>
-  </si>
-  <si>
     <t>Charlotte Nsongo</t>
   </si>
   <si>
@@ -159,6 +153,12 @@
   </si>
   <si>
     <t>Joscky  Wasukama</t>
+  </si>
+  <si>
+    <t>Rémy Miantezila</t>
+  </si>
+  <si>
+    <t>Léopold Ngoma</t>
   </si>
 </sst>
 </file>
@@ -697,7 +697,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -712,22 +712,22 @@
   <sheetData>
     <row r="1" spans="1:9" s="5" customFormat="1" ht="33" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C1" s="24" t="s">
+      <c r="D1" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>12</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -735,10 +735,10 @@
         <v>0</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" s="13">
         <v>10</v>
@@ -756,10 +756,10 @@
         <v>1</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D3" s="13">
         <v>10</v>
@@ -774,13 +774,13 @@
     </row>
     <row r="4" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="11" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D4" s="13">
         <v>10</v>
@@ -795,13 +795,13 @@
     </row>
     <row r="5" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="11" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D5" s="13">
         <v>10</v>
@@ -816,13 +816,13 @@
     </row>
     <row r="6" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="11" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D6" s="13">
         <v>10</v>
@@ -837,13 +837,13 @@
     </row>
     <row r="7" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D7" s="13">
         <v>10</v>
@@ -858,13 +858,13 @@
     </row>
     <row r="8" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8" s="13">
         <v>10</v>
@@ -879,10 +879,10 @@
     </row>
     <row r="9" spans="1:9" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="14" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C9" s="25"/>
       <c r="D9" s="16">
@@ -903,7 +903,7 @@
       <c r="B10" s="19"/>
       <c r="C10" s="12"/>
       <c r="D10" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="28">
         <v>0</v>
@@ -917,7 +917,7 @@
       <c r="B11" s="19"/>
       <c r="C11" s="12"/>
       <c r="D11" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="28">
         <v>0</v>
@@ -931,7 +931,7 @@
       <c r="B12" s="19"/>
       <c r="C12" s="12"/>
       <c r="D12" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E12" s="28">
         <v>0</v>
@@ -942,13 +942,13 @@
     </row>
     <row r="13" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="11" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D13" s="21">
         <v>10</v>
@@ -964,13 +964,13 @@
     </row>
     <row r="14" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D14" s="21">
         <v>10</v>
@@ -985,13 +985,13 @@
     </row>
     <row r="15" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D15" s="21">
         <v>10</v>
@@ -1006,13 +1006,13 @@
     </row>
     <row r="16" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D16" s="21">
         <v>10</v>
@@ -1027,10 +1027,10 @@
     </row>
     <row r="17" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="12"/>
       <c r="D17" s="21">
@@ -1046,13 +1046,13 @@
     </row>
     <row r="18" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="11" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" s="21">
         <v>0</v>
@@ -1068,13 +1068,13 @@
     </row>
     <row r="19" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D19" s="21">
         <v>10</v>
@@ -1089,13 +1089,13 @@
     </row>
     <row r="20" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="11" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D20" s="21">
         <v>10</v>
@@ -1110,13 +1110,13 @@
     </row>
     <row r="21" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D21" s="21">
         <v>10</v>
@@ -1131,13 +1131,13 @@
     </row>
     <row r="22" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="11" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D22" s="21">
         <v>10</v>
@@ -1152,13 +1152,13 @@
     </row>
     <row r="23" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D23" s="21">
         <v>10</v>
@@ -1173,13 +1173,13 @@
     </row>
     <row r="24" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="11" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D24" s="21">
         <v>10</v>
@@ -1194,13 +1194,13 @@
     </row>
     <row r="25" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D25" s="21">
         <v>10</v>
@@ -1215,13 +1215,13 @@
     </row>
     <row r="26" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D26" s="21">
         <v>10</v>
@@ -1236,13 +1236,13 @@
     </row>
     <row r="27" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D27" s="21">
         <v>10</v>
@@ -1257,13 +1257,13 @@
     </row>
     <row r="28" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D28" s="21">
         <v>10</v>
@@ -1278,13 +1278,13 @@
     </row>
     <row r="29" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D29" s="21">
         <v>10</v>
@@ -1302,21 +1302,21 @@
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
       <c r="D30" s="20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E30" s="21">
         <v>0</v>
       </c>
       <c r="F30" s="22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="14" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B31" s="15" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C31" s="26"/>
       <c r="D31" s="23">

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6147BEA-BB48-9443-8240-F380B1FEA722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34772B2-A4BF-2F47-8786-8E5DF1E2CD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -697,7 +697,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,11 +744,11 @@
         <v>10</v>
       </c>
       <c r="E2" s="13">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="F2" s="13">
         <f>SUM(D2,E2)</f>
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -891,11 +891,11 @@
       </c>
       <c r="E9" s="16">
         <f>SUM(E2:E8)</f>
-        <v>100</v>
+        <v>150</v>
       </c>
       <c r="F9" s="17">
         <f>SUM(F2:F8)</f>
-        <v>170</v>
+        <v>220</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A34772B2-A4BF-2F47-8786-8E5DF1E2CD90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E9D25B0-5DF0-BE4A-8F20-BF127C535FBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="42">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -159,6 +159,9 @@
   </si>
   <si>
     <t>Léopold Ngoma</t>
+  </si>
+  <si>
+    <t>Nzuzi Mvula</t>
   </si>
 </sst>
 </file>
@@ -694,10 +697,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:I35"/>
+  <dimension ref="A1:I36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1278,7 +1281,7 @@
     </row>
     <row r="29" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="11" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B29" s="12" t="s">
         <v>16</v>
@@ -1297,49 +1300,63 @@
       </c>
       <c r="I29" s="8"/>
     </row>
-    <row r="30" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A30" s="11"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="20" t="s">
+    <row r="30" spans="1:9" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A30" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B30" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>37</v>
+      </c>
+      <c r="D30" s="21">
+        <v>10</v>
+      </c>
+      <c r="E30" s="21">
+        <v>0</v>
+      </c>
+      <c r="F30" s="22">
+        <v>10</v>
+      </c>
+      <c r="I30" s="8"/>
+    </row>
+    <row r="31" spans="1:9" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A31" s="11"/>
+      <c r="B31" s="12"/>
+      <c r="C31" s="12"/>
+      <c r="D31" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E30" s="21">
-        <v>0</v>
-      </c>
-      <c r="F30" s="22" t="s">
+      <c r="E31" s="21">
+        <v>0</v>
+      </c>
+      <c r="F31" s="22" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A31" s="14" t="s">
+    <row r="32" spans="1:9" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A32" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="B31" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C31" s="26"/>
-      <c r="D31" s="23">
-        <f>SUM(D13:D30)</f>
-        <v>160</v>
-      </c>
-      <c r="E31" s="23">
-        <f>SUM(E13:E30)</f>
+      <c r="B32" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="26"/>
+      <c r="D32" s="23">
+        <f>SUM(D13:D31)</f>
+        <v>170</v>
+      </c>
+      <c r="E32" s="23">
+        <f>SUM(E13:E31)</f>
         <v>200</v>
       </c>
-      <c r="F31" s="22">
-        <f>SUM(D31,E31)</f>
-        <v>360</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="6"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="1"/>
-      <c r="E32" s="29"/>
-    </row>
-    <row r="33" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+      <c r="F32" s="22">
+        <f>SUM(D32,E32)</f>
+        <v>370</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="B33" s="6"/>
       <c r="C33" s="6"/>
@@ -1360,6 +1377,13 @@
       <c r="D35" s="1"/>
       <c r="E35" s="29"/>
     </row>
+    <row r="36" spans="1:5" ht="22" x14ac:dyDescent="0.3">
+      <c r="A36" s="1"/>
+      <c r="B36" s="6"/>
+      <c r="C36" s="6"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="29"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED71B82D-6231-2A4F-AD15-279464912B83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C8330-B17A-694B-B393-936EEB868191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -723,7 +723,7 @@
   <dimension ref="A1:L39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+      <selection activeCell="F3" sqref="F3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -813,18 +813,10 @@
       <c r="E3" s="10">
         <v>50</v>
       </c>
-      <c r="F3" s="10">
-        <v>0</v>
-      </c>
-      <c r="G3" s="10">
-        <v>0</v>
-      </c>
-      <c r="H3" s="10">
-        <v>0</v>
-      </c>
-      <c r="I3" s="10">
-        <v>0</v>
-      </c>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{145C8330-B17A-694B-B393-936EEB868191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FEC674-95FA-2D4E-9952-E653C094CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="48">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -313,7 +313,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -385,6 +385,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -722,8 +725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:I3"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -733,7 +736,7 @@
     <col min="3" max="3" width="20.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
     <col min="5" max="5" width="21.1640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="11.33203125" style="24" customWidth="1"/>
+    <col min="6" max="6" width="15.83203125" style="24" customWidth="1"/>
     <col min="7" max="7" width="10.83203125" style="24" customWidth="1"/>
     <col min="8" max="8" width="10.33203125" style="24" customWidth="1"/>
     <col min="9" max="9" width="10.5" style="24" customWidth="1"/>
@@ -813,10 +816,18 @@
       <c r="E3" s="10">
         <v>50</v>
       </c>
-      <c r="F3" s="10"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="10"/>
-      <c r="I3" s="10"/>
+      <c r="F3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I3" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
@@ -863,10 +874,18 @@
       <c r="E5" s="10">
         <v>50</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="F5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="6" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
@@ -884,10 +903,18 @@
       <c r="E6" s="10">
         <v>50</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
+      <c r="F6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
@@ -905,10 +932,18 @@
       <c r="E7" s="10">
         <v>0</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
+      <c r="F7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
@@ -926,10 +961,18 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
+      <c r="F8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
@@ -947,10 +990,18 @@
       <c r="E9" s="10">
         <v>50</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
@@ -1026,10 +1077,22 @@
         <f>SUM(E2:E11)</f>
         <v>400</v>
       </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
+      <c r="F12" s="30">
+        <f>SUM(F2:F11)</f>
+        <v>40</v>
+      </c>
+      <c r="G12" s="30">
+        <f>0+SUM(G2:G11)</f>
+        <v>40</v>
+      </c>
+      <c r="H12" s="30">
+        <f>SUM(H2:H11)</f>
+        <v>40</v>
+      </c>
+      <c r="I12" s="30">
+        <f>SUM(I2:I11)</f>
+        <v>30</v>
+      </c>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14"/>
@@ -1041,10 +1104,18 @@
       <c r="E13" s="22">
         <v>0</v>
       </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
+      <c r="F13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
@@ -1056,10 +1127,18 @@
       <c r="E14" s="22">
         <v>0</v>
       </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
+      <c r="F14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="15" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
@@ -1071,10 +1150,18 @@
       <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
+      <c r="F15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="16" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="16" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="8" t="s">
@@ -1092,10 +1179,18 @@
       <c r="E16" s="17">
         <v>0</v>
       </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
+      <c r="F16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L16" s="2"/>
     </row>
     <row r="17" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1114,10 +1209,18 @@
       <c r="E17" s="17">
         <v>0</v>
       </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17"/>
-      <c r="H17" s="17"/>
-      <c r="I17" s="17"/>
+      <c r="F17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L17" s="7"/>
     </row>
     <row r="18" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1136,10 +1239,18 @@
       <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="17"/>
-      <c r="G18" s="17"/>
-      <c r="H18" s="17"/>
-      <c r="I18" s="17"/>
+      <c r="F18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L18" s="7"/>
     </row>
     <row r="19" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1158,10 +1269,18 @@
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="17"/>
-      <c r="G19" s="17"/>
-      <c r="H19" s="17"/>
-      <c r="I19" s="17"/>
+      <c r="F19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L19" s="7"/>
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1178,10 +1297,18 @@
       <c r="E20" s="17">
         <v>0</v>
       </c>
-      <c r="F20" s="17"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="17"/>
-      <c r="I20" s="17"/>
+      <c r="F20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1200,10 +1327,18 @@
       <c r="E21" s="17">
         <v>50</v>
       </c>
-      <c r="F21" s="17"/>
-      <c r="G21" s="17"/>
-      <c r="H21" s="17"/>
-      <c r="I21" s="17"/>
+      <c r="F21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L21" s="7"/>
     </row>
     <row r="22" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1222,10 +1357,18 @@
       <c r="E22" s="17">
         <v>0</v>
       </c>
-      <c r="F22" s="17"/>
-      <c r="G22" s="17"/>
-      <c r="H22" s="17"/>
-      <c r="I22" s="17"/>
+      <c r="F22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L22" s="7"/>
     </row>
     <row r="23" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1244,10 +1387,18 @@
       <c r="E23" s="17">
         <v>50</v>
       </c>
-      <c r="F23" s="17"/>
-      <c r="G23" s="17"/>
-      <c r="H23" s="17"/>
-      <c r="I23" s="17"/>
+      <c r="F23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L23" s="7"/>
     </row>
     <row r="24" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1266,10 +1417,18 @@
       <c r="E24" s="17">
         <v>0</v>
       </c>
-      <c r="F24" s="17"/>
-      <c r="G24" s="17"/>
-      <c r="H24" s="17"/>
-      <c r="I24" s="17"/>
+      <c r="F24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L24" s="7"/>
     </row>
     <row r="25" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1288,10 +1447,18 @@
       <c r="E25" s="17">
         <v>0</v>
       </c>
-      <c r="F25" s="17"/>
-      <c r="G25" s="17"/>
-      <c r="H25" s="17"/>
-      <c r="I25" s="17"/>
+      <c r="F25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L25" s="7"/>
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1310,10 +1477,18 @@
       <c r="E26" s="17">
         <v>0</v>
       </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17"/>
-      <c r="H26" s="17"/>
-      <c r="I26" s="17"/>
+      <c r="F26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L26" s="7"/>
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1332,10 +1507,18 @@
       <c r="E27" s="17">
         <v>50</v>
       </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="17"/>
-      <c r="H27" s="17"/>
-      <c r="I27" s="17"/>
+      <c r="F27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L27" s="7"/>
     </row>
     <row r="28" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1354,10 +1537,18 @@
       <c r="E28" s="17">
         <v>0</v>
       </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="17"/>
-      <c r="H28" s="17"/>
-      <c r="I28" s="17"/>
+      <c r="F28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L28" s="7"/>
     </row>
     <row r="29" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1376,10 +1567,18 @@
       <c r="E29" s="17">
         <v>0</v>
       </c>
-      <c r="F29" s="17"/>
-      <c r="G29" s="17"/>
-      <c r="H29" s="17"/>
-      <c r="I29" s="17"/>
+      <c r="F29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1398,10 +1597,18 @@
       <c r="E30" s="17">
         <v>50</v>
       </c>
-      <c r="F30" s="17"/>
-      <c r="G30" s="17"/>
-      <c r="H30" s="17"/>
-      <c r="I30" s="17"/>
+      <c r="F30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L30" s="7"/>
     </row>
     <row r="31" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1420,10 +1627,18 @@
       <c r="E31" s="17">
         <v>0</v>
       </c>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
+      <c r="F31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L31" s="7"/>
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1442,10 +1657,18 @@
       <c r="E32" s="17">
         <v>0</v>
       </c>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L32" s="7"/>
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1464,10 +1687,18 @@
       <c r="E33" s="17">
         <v>0</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17"/>
-      <c r="I33" s="17"/>
+      <c r="F33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>16</v>
+      </c>
       <c r="L33" s="7"/>
     </row>
     <row r="34" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1480,10 +1711,18 @@
       <c r="E34" s="17">
         <v>0</v>
       </c>
-      <c r="F34" s="17"/>
-      <c r="G34" s="17"/>
-      <c r="H34" s="17"/>
-      <c r="I34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="35" spans="1:12" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="11" t="s">
@@ -1501,10 +1740,18 @@
         <f>SUM(E16:E34)</f>
         <v>200</v>
       </c>
-      <c r="F35" s="17"/>
-      <c r="G35" s="17"/>
-      <c r="H35" s="17"/>
-      <c r="I35" s="17"/>
+      <c r="F35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="36" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33FEC674-95FA-2D4E-9952-E653C094CF13}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6338A16-3A82-824F-A36A-938DABE9427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="51">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -180,6 +180,15 @@
   </si>
   <si>
     <t>Fév</t>
+  </si>
+  <si>
+    <t>Mathieu Tusalamo</t>
+  </si>
+  <si>
+    <t>Belgique</t>
+  </si>
+  <si>
+    <t>""</t>
   </si>
 </sst>
 </file>
@@ -313,7 +322,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -387,6 +396,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -723,10 +735,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:L39"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1066,7 +1078,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="13">
@@ -1177,13 +1189,13 @@
         <v>10</v>
       </c>
       <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="17" t="s">
-        <v>16</v>
+        <v>50</v>
+      </c>
+      <c r="F16" s="17">
+        <v>10</v>
+      </c>
+      <c r="G16" s="17">
+        <v>10</v>
       </c>
       <c r="H16" s="17" t="s">
         <v>16</v>
@@ -1290,7 +1302,9 @@
       <c r="B20" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="9"/>
+      <c r="C20" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="D20" s="17">
         <v>10</v>
       </c>
@@ -1701,70 +1715,93 @@
       </c>
       <c r="L33" s="7"/>
     </row>
-    <row r="34" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="8"/>
-      <c r="B34" s="9"/>
-      <c r="C34" s="9"/>
-      <c r="D34" s="16" t="s">
-        <v>16</v>
+    <row r="34" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="17">
+        <v>10</v>
       </c>
       <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I34" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A35" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8"/>
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E35" s="17">
+        <v>0</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C35" s="21"/>
-      <c r="D35" s="18">
-        <f>SUM(D16:D34)</f>
-        <v>170</v>
-      </c>
-      <c r="E35" s="18">
-        <f>SUM(E16:E34)</f>
-        <v>200</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="1"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="5"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="23"/>
-      <c r="F36" s="23"/>
-      <c r="G36" s="23"/>
-      <c r="H36" s="23"/>
-      <c r="I36" s="23"/>
-    </row>
-    <row r="37" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="B36" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="C36" s="21"/>
+      <c r="D36" s="18">
+        <f>SUM(D16:D35)</f>
+        <v>180</v>
+      </c>
+      <c r="E36" s="18">
+        <f>SUM(E16:E35)</f>
+        <v>300</v>
+      </c>
+      <c r="F36" s="31">
+        <f>SUM(G16:G35)</f>
+        <v>10</v>
+      </c>
+      <c r="G36" s="31">
+        <f>SUM(G16:G35)</f>
+        <v>10</v>
+      </c>
+      <c r="H36" s="31">
+        <f ca="1">SUM(H16:H36)</f>
+        <v>0</v>
+      </c>
+      <c r="I36" s="31">
+        <f ca="1">SUM(I16:I36)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
@@ -1797,6 +1834,17 @@
       <c r="H39" s="23"/>
       <c r="I39" s="23"/>
     </row>
+    <row r="40" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A40" s="1"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="23"/>
+      <c r="H40" s="23"/>
+      <c r="I40" s="23"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10402"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6338A16-3A82-824F-A36A-938DABE9427A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4014D56B-8AFC-C446-A9FC-791513B5233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -101,9 +101,6 @@
     <t>Dede Kavungu</t>
   </si>
   <si>
-    <t>Coco Mitouche</t>
-  </si>
-  <si>
     <t>Aise Ngeyitala</t>
   </si>
   <si>
@@ -189,6 +186,21 @@
   </si>
   <si>
     <t>""</t>
+  </si>
+  <si>
+    <t>Rachel Bakala</t>
+  </si>
+  <si>
+    <t>Moïse Fuakuingi</t>
+  </si>
+  <si>
+    <t>Nicole Duze</t>
+  </si>
+  <si>
+    <t>Mamie Kindomba</t>
+  </si>
+  <si>
+    <t>Mitouche Nsukami</t>
   </si>
 </sst>
 </file>
@@ -735,10 +747,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:L40"/>
+  <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -771,16 +783,16 @@
         <v>4</v>
       </c>
       <c r="F1" s="28" t="s">
+        <v>45</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="G1" s="28" t="s">
-        <v>47</v>
-      </c>
       <c r="H1" s="28" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="28" t="s">
         <v>44</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -843,13 +855,13 @@
     </row>
     <row r="4" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D4" s="10">
         <v>10</v>
@@ -878,7 +890,7 @@
         <v>14</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D5" s="10">
         <v>10</v>
@@ -907,7 +919,7 @@
         <v>14</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10">
         <v>10</v>
@@ -915,28 +927,28 @@
       <c r="E6" s="10">
         <v>50</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>16</v>
+      <c r="F6" s="10">
+        <v>10</v>
+      </c>
+      <c r="G6" s="10">
+        <v>10</v>
+      </c>
+      <c r="H6" s="10">
+        <v>10</v>
+      </c>
+      <c r="I6" s="10">
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D7" s="10">
         <v>10</v>
@@ -959,13 +971,13 @@
     </row>
     <row r="8" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D8" s="10">
         <v>10</v>
@@ -988,13 +1000,13 @@
     </row>
     <row r="9" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D9" s="10">
         <v>10</v>
@@ -1017,13 +1029,13 @@
     </row>
     <row r="10" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D10" s="10">
         <v>10</v>
@@ -1046,13 +1058,13 @@
     </row>
     <row r="11" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11" s="10">
         <v>10</v>
@@ -1078,7 +1090,7 @@
         <v>19</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="13">
@@ -1091,19 +1103,19 @@
       </c>
       <c r="F12" s="30">
         <f>SUM(F2:F11)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G12" s="30">
         <f>0+SUM(G2:G11)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="H12" s="30">
         <f>SUM(H2:H11)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="I12" s="30">
         <f>SUM(I2:I11)</f>
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1197,8 +1209,8 @@
       <c r="G16" s="17">
         <v>10</v>
       </c>
-      <c r="H16" s="17" t="s">
-        <v>16</v>
+      <c r="H16" s="17">
+        <v>10</v>
       </c>
       <c r="I16" s="17" t="s">
         <v>16</v>
@@ -1207,7 +1219,7 @@
     </row>
     <row r="17" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>15</v>
@@ -1237,7 +1249,7 @@
     </row>
     <row r="18" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>15</v>
@@ -1297,7 +1309,7 @@
     </row>
     <row r="20" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>15</v>
@@ -1309,7 +1321,7 @@
         <v>10</v>
       </c>
       <c r="E20" s="17">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F20" s="17" t="s">
         <v>16</v>
@@ -1327,13 +1339,13 @@
     </row>
     <row r="21" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="D21" s="17">
         <v>0</v>
@@ -1357,7 +1369,7 @@
     </row>
     <row r="22" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>15</v>
@@ -1387,7 +1399,7 @@
     </row>
     <row r="23" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>15</v>
@@ -1417,7 +1429,7 @@
     </row>
     <row r="24" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>15</v>
@@ -1447,7 +1459,7 @@
     </row>
     <row r="25" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>15</v>
@@ -1477,7 +1489,7 @@
     </row>
     <row r="26" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>15</v>
@@ -1507,7 +1519,7 @@
     </row>
     <row r="27" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>15</v>
@@ -1521,14 +1533,14 @@
       <c r="E27" s="17">
         <v>50</v>
       </c>
-      <c r="F27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G27" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="17" t="s">
-        <v>16</v>
+      <c r="F27" s="17">
+        <v>10</v>
+      </c>
+      <c r="G27" s="17">
+        <v>10</v>
+      </c>
+      <c r="H27" s="17">
+        <v>10</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>16</v>
@@ -1537,7 +1549,7 @@
     </row>
     <row r="28" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>15</v>
@@ -1597,7 +1609,7 @@
     </row>
     <row r="30" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>15</v>
@@ -1657,13 +1669,13 @@
     </row>
     <row r="32" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D32" s="17">
         <v>10</v>
@@ -1687,13 +1699,13 @@
     </row>
     <row r="33" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C33" s="9" t="s">
         <v>34</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C33" s="9" t="s">
-        <v>35</v>
       </c>
       <c r="D33" s="17">
         <v>10</v>
@@ -1717,133 +1729,253 @@
     </row>
     <row r="34" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B34" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C34" s="9" t="s">
+      <c r="D34" s="17">
+        <v>10</v>
+      </c>
+      <c r="E34" s="17">
+        <v>50</v>
+      </c>
+      <c r="F34" s="17">
+        <v>0</v>
+      </c>
+      <c r="G34" s="17">
+        <v>0</v>
+      </c>
+      <c r="H34" s="17">
+        <v>0</v>
+      </c>
+      <c r="I34" s="17">
+        <v>0</v>
+      </c>
+      <c r="L34" s="7"/>
+    </row>
+    <row r="35" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="17">
+        <v>10</v>
+      </c>
+      <c r="E35" s="17">
+        <v>40</v>
+      </c>
+      <c r="F35" s="17">
+        <v>0</v>
+      </c>
+      <c r="G35" s="17">
+        <v>0</v>
+      </c>
+      <c r="H35" s="17">
+        <v>0</v>
+      </c>
+      <c r="I35" s="17">
+        <v>0</v>
+      </c>
+      <c r="L35" s="7"/>
+    </row>
+    <row r="36" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="17">
+        <v>10</v>
+      </c>
+      <c r="E36" s="17">
+        <v>50</v>
+      </c>
+      <c r="F36" s="17">
+        <v>0</v>
+      </c>
+      <c r="G36" s="17">
+        <v>0</v>
+      </c>
+      <c r="H36" s="17">
+        <v>0</v>
+      </c>
+      <c r="I36" s="17">
+        <v>0</v>
+      </c>
+      <c r="L36" s="7"/>
+    </row>
+    <row r="37" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D37" s="17">
+        <v>10</v>
+      </c>
+      <c r="E37" s="17">
+        <v>50</v>
+      </c>
+      <c r="F37" s="17">
+        <v>0</v>
+      </c>
+      <c r="G37" s="17">
+        <v>0</v>
+      </c>
+      <c r="H37" s="17">
+        <v>0</v>
+      </c>
+      <c r="I37" s="17">
+        <v>0</v>
+      </c>
+      <c r="L37" s="7"/>
+    </row>
+    <row r="38" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="17">
+        <v>10</v>
+      </c>
+      <c r="E38" s="17">
+        <v>50</v>
+      </c>
+      <c r="F38" s="17">
+        <v>0</v>
+      </c>
+      <c r="G38" s="17">
+        <v>0</v>
+      </c>
+      <c r="H38" s="17">
+        <v>0</v>
+      </c>
+      <c r="I38" s="17">
+        <v>0</v>
+      </c>
+      <c r="L38" s="7"/>
+    </row>
+    <row r="39" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8"/>
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E39" s="17">
+        <v>0</v>
+      </c>
+      <c r="F39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H39" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A40" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="17">
-        <v>10</v>
-      </c>
-      <c r="E34" s="17">
-        <v>50</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="8"/>
-      <c r="B35" s="9"/>
-      <c r="C35" s="9"/>
-      <c r="D35" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E35" s="17">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I35" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="1:12" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A36" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="C36" s="21"/>
-      <c r="D36" s="18">
-        <f>SUM(D16:D35)</f>
-        <v>180</v>
-      </c>
-      <c r="E36" s="18">
-        <f>SUM(E16:E35)</f>
-        <v>300</v>
-      </c>
-      <c r="F36" s="31">
-        <f>SUM(G16:G35)</f>
-        <v>10</v>
-      </c>
-      <c r="G36" s="31">
-        <f>SUM(G16:G35)</f>
-        <v>10</v>
-      </c>
-      <c r="H36" s="31">
-        <f ca="1">SUM(H16:H36)</f>
-        <v>0</v>
-      </c>
-      <c r="I36" s="31">
-        <f ca="1">SUM(I16:I36)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="23"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="23"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="23"/>
-    </row>
-    <row r="38" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A38" s="1"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="23"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="23"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="23"/>
-    </row>
-    <row r="39" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A39" s="1"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="5"/>
-      <c r="D39" s="1"/>
-      <c r="E39" s="23"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="23"/>
-    </row>
-    <row r="40" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A40" s="1"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="1"/>
-      <c r="E40" s="23"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="23"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="23"/>
+      <c r="C40" s="21"/>
+      <c r="D40" s="18">
+        <f>SUM(D16:D39)</f>
+        <v>220</v>
+      </c>
+      <c r="E40" s="18">
+        <f>SUM(E16:E39)</f>
+        <v>515</v>
+      </c>
+      <c r="F40" s="31">
+        <f>SUM(G16:G39)</f>
+        <v>20</v>
+      </c>
+      <c r="G40" s="31">
+        <f>SUM(G16:G39)</f>
+        <v>20</v>
+      </c>
+      <c r="H40" s="31">
+        <f ca="1">SUM(H16:H40)</f>
+        <v>0</v>
+      </c>
+      <c r="I40" s="31">
+        <f ca="1">SUM(I16:I40)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="1"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="23"/>
+      <c r="H41" s="23"/>
+      <c r="I41" s="23"/>
+    </row>
+    <row r="42" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A42" s="1"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="23"/>
+      <c r="H42" s="23"/>
+      <c r="I42" s="23"/>
+    </row>
+    <row r="43" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A43" s="1"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="23"/>
+      <c r="H43" s="23"/>
+      <c r="I43" s="23"/>
+    </row>
+    <row r="44" spans="1:12" ht="22" x14ac:dyDescent="0.3">
+      <c r="A44" s="1"/>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="23"/>
+      <c r="H44" s="23"/>
+      <c r="I44" s="23"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4014D56B-8AFC-C446-A9FC-791513B5233F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CE439-5383-D24C-B5BF-AB9BD53DB052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -201,6 +201,9 @@
   </si>
   <si>
     <t>Mitouche Nsukami</t>
+  </si>
+  <si>
+    <t>Angleterre</t>
   </si>
 </sst>
 </file>
@@ -749,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1495,7 +1498,7 @@
         <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D26" s="17">
         <v>10</v>
@@ -1525,7 +1528,7 @@
         <v>15</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D27" s="17">
         <v>10</v>
@@ -1585,7 +1588,7 @@
         <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D29" s="17">
         <v>10</v>
@@ -1645,7 +1648,7 @@
         <v>15</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D31" s="17">
         <v>10</v>
@@ -1825,7 +1828,7 @@
         <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D37" s="17">
         <v>10</v>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{708CE439-5383-D24C-B5BF-AB9BD53DB052}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88EA07-FFB1-A145-B88B-31C3B259648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -752,8 +752,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
   <dimension ref="A1:L44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="G45" sqref="G45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1928,11 +1928,11 @@
         <v>20</v>
       </c>
       <c r="H40" s="31">
-        <f ca="1">SUM(H16:H40)</f>
-        <v>0</v>
+        <f>SUM(H16:H39)</f>
+        <v>20</v>
       </c>
       <c r="I40" s="31">
-        <f ca="1">SUM(I16:I40)</f>
+        <f>SUM(I16:I39)</f>
         <v>0</v>
       </c>
     </row>

--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D88EA07-FFB1-A145-B88B-31C3B259648C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7EEC62-4E74-6347-B1EB-34312576600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="63">
   <si>
     <t>Eugenie Malayi</t>
   </si>
@@ -204,15 +204,37 @@
   </si>
   <si>
     <t>Angleterre</t>
+  </si>
+  <si>
+    <t>Amerique</t>
+  </si>
+  <si>
+    <t>Europe</t>
+  </si>
+  <si>
+    <t>Afrique</t>
+  </si>
+  <si>
+    <t>Pierre Junior Nzingu</t>
+  </si>
+  <si>
+    <t>Anaclet Massamba</t>
+  </si>
+  <si>
+    <t>DRC</t>
+  </si>
+  <si>
+    <t>Depenses</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="165" formatCode="[$€-2]\ #,##0.00"/>
+    <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -295,7 +317,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -333,11 +355,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -415,6 +474,24 @@
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,10 +827,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF6F12D5-1178-994A-98D1-482C6B1D858E}">
-  <dimension ref="A1:L44"/>
+  <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -762,14 +839,15 @@
     <col min="2" max="2" width="13.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="20.6640625" style="6" customWidth="1"/>
     <col min="4" max="4" width="17" customWidth="1"/>
-    <col min="5" max="5" width="21.1640625" style="24" customWidth="1"/>
-    <col min="6" max="6" width="15.83203125" style="24" customWidth="1"/>
-    <col min="7" max="7" width="10.83203125" style="24" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" style="24" customWidth="1"/>
-    <col min="9" max="9" width="10.5" style="24" customWidth="1"/>
+    <col min="5" max="6" width="21.1640625" style="24" customWidth="1"/>
+    <col min="7" max="7" width="15.83203125" style="24" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="24" customWidth="1"/>
+    <col min="9" max="9" width="13.5" style="24" customWidth="1"/>
+    <col min="10" max="10" width="15" style="24" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="29" customFormat="1" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="29" customFormat="1" ht="55" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="25" t="s">
         <v>10</v>
       </c>
@@ -785,51 +863,47 @@
       <c r="E1" s="27" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="I1" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="J1" s="28" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" s="10">
-        <v>10</v>
-      </c>
-      <c r="E2" s="10">
-        <v>50</v>
-      </c>
-      <c r="F2" s="10">
-        <v>10</v>
-      </c>
-      <c r="G2" s="10">
-        <v>10</v>
-      </c>
-      <c r="H2" s="10">
-        <v>10</v>
-      </c>
-      <c r="I2" s="10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:11" s="29" customFormat="1" ht="31" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="36"/>
+      <c r="E2" s="37"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="8" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B3" s="9" t="s">
         <v>14</v>
@@ -843,28 +917,29 @@
       <c r="E3" s="10">
         <v>50</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F3" s="10"/>
+      <c r="G3" s="10">
+        <v>10</v>
+      </c>
+      <c r="H3" s="10">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10">
+        <v>10</v>
+      </c>
+      <c r="J3" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="8" t="s">
-        <v>36</v>
+        <v>1</v>
       </c>
       <c r="B4" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>40</v>
+        <v>9</v>
       </c>
       <c r="D4" s="10">
         <v>10</v>
@@ -872,22 +947,23 @@
       <c r="E4" s="10">
         <v>50</v>
       </c>
-      <c r="F4" s="10">
-        <v>10</v>
-      </c>
-      <c r="G4" s="10">
-        <v>10</v>
-      </c>
-      <c r="H4" s="10">
-        <v>10</v>
-      </c>
-      <c r="I4" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F4" s="10"/>
+      <c r="G4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="8" t="s">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="B5" s="9" t="s">
         <v>14</v>
@@ -901,22 +977,23 @@
       <c r="E5" s="10">
         <v>50</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F5" s="10"/>
+      <c r="G5" s="10">
+        <v>10</v>
+      </c>
+      <c r="H5" s="10">
+        <v>10</v>
+      </c>
+      <c r="I5" s="10">
+        <v>10</v>
+      </c>
+      <c r="J5" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="8" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="9" t="s">
         <v>14</v>
@@ -930,22 +1007,23 @@
       <c r="E6" s="10">
         <v>50</v>
       </c>
-      <c r="F6" s="10">
-        <v>10</v>
-      </c>
-      <c r="G6" s="10">
-        <v>10</v>
-      </c>
-      <c r="H6" s="10">
-        <v>10</v>
-      </c>
-      <c r="I6" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F6" s="10"/>
+      <c r="G6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="8" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="B7" s="9" t="s">
         <v>14</v>
@@ -957,24 +1035,25 @@
         <v>10</v>
       </c>
       <c r="E7" s="10">
-        <v>0</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>10</v>
+      </c>
+      <c r="H7" s="10">
+        <v>10</v>
+      </c>
+      <c r="I7" s="10">
+        <v>10</v>
+      </c>
+      <c r="J7" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B8" s="9" t="s">
         <v>14</v>
@@ -988,22 +1067,23 @@
       <c r="E8" s="10">
         <v>0</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I8" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>10</v>
+      </c>
+      <c r="H8" s="10">
+        <v>10</v>
+      </c>
+      <c r="I8" s="10">
+        <v>10</v>
+      </c>
+      <c r="J8" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="8" t="s">
-        <v>39</v>
+        <v>23</v>
       </c>
       <c r="B9" s="9" t="s">
         <v>14</v>
@@ -1015,24 +1095,25 @@
         <v>10</v>
       </c>
       <c r="E9" s="10">
-        <v>50</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I9" s="10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="10">
+        <v>0</v>
+      </c>
+      <c r="H9" s="10">
+        <v>0</v>
+      </c>
+      <c r="I9" s="10">
+        <v>0</v>
+      </c>
+      <c r="J9" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B10" s="9" t="s">
         <v>14</v>
@@ -1046,22 +1127,23 @@
       <c r="E10" s="10">
         <v>50</v>
       </c>
-      <c r="F10" s="10">
-        <v>10</v>
-      </c>
-      <c r="G10" s="10">
-        <v>10</v>
-      </c>
-      <c r="H10" s="10">
-        <v>10</v>
-      </c>
-      <c r="I10" s="10">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="F10" s="10"/>
+      <c r="G10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B11" s="9" t="s">
         <v>14</v>
@@ -1075,9 +1157,7 @@
       <c r="E11" s="10">
         <v>50</v>
       </c>
-      <c r="F11" s="10">
-        <v>10</v>
-      </c>
+      <c r="F11" s="10"/>
       <c r="G11" s="10">
         <v>10</v>
       </c>
@@ -1087,64 +1167,81 @@
       <c r="I11" s="10">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="11" t="s">
+      <c r="J11" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="10">
+        <v>10</v>
+      </c>
+      <c r="E12" s="10">
+        <v>50</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="10">
+        <v>10</v>
+      </c>
+      <c r="H12" s="10">
+        <v>10</v>
+      </c>
+      <c r="I12" s="10">
+        <v>10</v>
+      </c>
+      <c r="J12" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="4" customFormat="1" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="12" t="s">
+      <c r="B13" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="20"/>
-      <c r="D12" s="13">
-        <f>SUM(D2:D11)</f>
+      <c r="C13" s="20"/>
+      <c r="D13" s="13">
+        <f>SUM(D3:D12)</f>
         <v>100</v>
       </c>
-      <c r="E12" s="13">
-        <f>SUM(E2:E11)</f>
+      <c r="E13" s="13">
+        <f>SUM(E3:E12)</f>
         <v>400</v>
       </c>
-      <c r="F12" s="30">
-        <f>SUM(F2:F11)</f>
+      <c r="F13" s="13">
+        <v>0</v>
+      </c>
+      <c r="G13" s="30">
+        <f>SUM(G3:G12)</f>
+        <v>60</v>
+      </c>
+      <c r="H13" s="30">
+        <f>0+SUM(H3:H12)</f>
+        <v>60</v>
+      </c>
+      <c r="I13" s="30">
+        <f>SUM(I3:I12)</f>
+        <v>60</v>
+      </c>
+      <c r="J13" s="30">
+        <f>SUM(J3:J12)</f>
         <v>50</v>
       </c>
-      <c r="G12" s="30">
-        <f>0+SUM(G2:G11)</f>
-        <v>50</v>
-      </c>
-      <c r="H12" s="30">
-        <f>SUM(H2:H11)</f>
-        <v>50</v>
-      </c>
-      <c r="I12" s="30">
-        <f>SUM(I2:I11)</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E13" s="22">
-        <v>0</v>
-      </c>
-      <c r="F13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="K13" s="33">
+        <f>SUM(D13:J13)</f>
+        <v>730</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14"/>
       <c r="B14" s="15"/>
       <c r="C14" s="9"/>
@@ -1154,9 +1251,7 @@
       <c r="E14" s="22">
         <v>0</v>
       </c>
-      <c r="F14" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="F14" s="22"/>
       <c r="G14" s="16" t="s">
         <v>16</v>
       </c>
@@ -1166,8 +1261,11 @@
       <c r="I14" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J14" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14"/>
       <c r="B15" s="15"/>
       <c r="C15" s="9"/>
@@ -1177,9 +1275,7 @@
       <c r="E15" s="22">
         <v>0</v>
       </c>
-      <c r="F15" s="16" t="s">
-        <v>16</v>
-      </c>
+      <c r="F15" s="22"/>
       <c r="G15" s="16" t="s">
         <v>16</v>
       </c>
@@ -1189,40 +1285,35 @@
       <c r="I15" s="16" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="8" t="s">
+      <c r="J15" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="14"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="37"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="8" t="s">
         <v>5</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="D16" s="17">
-        <v>10</v>
-      </c>
-      <c r="E16" s="17">
-        <v>50</v>
-      </c>
-      <c r="F16" s="17">
-        <v>10</v>
-      </c>
-      <c r="G16" s="17">
-        <v>10</v>
-      </c>
-      <c r="H16" s="17">
-        <v>10</v>
-      </c>
-      <c r="I16" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="8" t="s">
-        <v>26</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>15</v>
@@ -1234,25 +1325,26 @@
         <v>10</v>
       </c>
       <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" s="7"/>
-    </row>
-    <row r="18" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <v>10</v>
+      </c>
+      <c r="H17" s="17">
+        <v>10</v>
+      </c>
+      <c r="I17" s="17">
+        <v>10</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M17" s="2"/>
+    </row>
+    <row r="18" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="8" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B18" s="9" t="s">
         <v>15</v>
@@ -1266,9 +1358,7 @@
       <c r="E18" s="17">
         <v>0</v>
       </c>
-      <c r="F18" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="F18" s="17"/>
       <c r="G18" s="17" t="s">
         <v>16</v>
       </c>
@@ -1278,11 +1368,14 @@
       <c r="I18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L18" s="7"/>
-    </row>
-    <row r="19" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J18" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M18" s="7"/>
+    </row>
+    <row r="19" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>15</v>
@@ -1296,9 +1389,7 @@
       <c r="E19" s="17">
         <v>0</v>
       </c>
-      <c r="F19" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="F19" s="17"/>
       <c r="G19" s="17" t="s">
         <v>16</v>
       </c>
@@ -1308,11 +1399,14 @@
       <c r="I19" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L19" s="7"/>
-    </row>
-    <row r="20" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J19" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M19" s="7"/>
+    </row>
+    <row r="20" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="8" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>15</v>
@@ -1324,11 +1418,9 @@
         <v>10</v>
       </c>
       <c r="E20" s="17">
-        <v>25</v>
-      </c>
-      <c r="F20" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F20" s="17"/>
       <c r="G20" s="17" t="s">
         <v>16</v>
       </c>
@@ -1338,27 +1430,28 @@
       <c r="I20" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L20" s="7"/>
-    </row>
-    <row r="21" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M20" s="7"/>
+    </row>
+    <row r="21" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>28</v>
+        <v>8</v>
       </c>
       <c r="D21" s="17">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="E21" s="17">
-        <v>50</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>25</v>
+      </c>
+      <c r="F21" s="17"/>
       <c r="G21" s="17" t="s">
         <v>16</v>
       </c>
@@ -1368,27 +1461,28 @@
       <c r="I21" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L21" s="7"/>
-    </row>
-    <row r="22" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J21" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M21" s="7"/>
+    </row>
+    <row r="22" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="D22" s="17">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F22" s="17"/>
       <c r="G22" s="17" t="s">
         <v>16</v>
       </c>
@@ -1398,11 +1492,14 @@
       <c r="I22" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L22" s="7"/>
-    </row>
-    <row r="23" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J22" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M22" s="7"/>
+    </row>
+    <row r="23" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="8" t="s">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>15</v>
@@ -1414,11 +1511,9 @@
         <v>10</v>
       </c>
       <c r="E23" s="17">
-        <v>50</v>
-      </c>
-      <c r="F23" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F23" s="17"/>
       <c r="G23" s="17" t="s">
         <v>16</v>
       </c>
@@ -1428,11 +1523,14 @@
       <c r="I23" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L23" s="7"/>
-    </row>
-    <row r="24" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J23" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M23" s="7"/>
+    </row>
+    <row r="24" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="8" t="s">
-        <v>29</v>
+        <v>54</v>
       </c>
       <c r="B24" s="9" t="s">
         <v>15</v>
@@ -1444,11 +1542,9 @@
         <v>10</v>
       </c>
       <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F24" s="17"/>
       <c r="G24" s="17" t="s">
         <v>16</v>
       </c>
@@ -1458,11 +1554,14 @@
       <c r="I24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L24" s="7"/>
-    </row>
-    <row r="25" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J24" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M24" s="7"/>
+    </row>
+    <row r="25" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>15</v>
@@ -1476,9 +1575,7 @@
       <c r="E25" s="17">
         <v>0</v>
       </c>
-      <c r="F25" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="F25" s="17"/>
       <c r="G25" s="17" t="s">
         <v>16</v>
       </c>
@@ -1488,17 +1585,20 @@
       <c r="I25" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L25" s="7"/>
-    </row>
-    <row r="26" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J25" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M25" s="7"/>
+    </row>
+    <row r="26" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="8" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D26" s="17">
         <v>10</v>
@@ -1506,9 +1606,7 @@
       <c r="E26" s="17">
         <v>0</v>
       </c>
-      <c r="F26" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="F26" s="17"/>
       <c r="G26" s="17" t="s">
         <v>16</v>
       </c>
@@ -1518,11 +1616,14 @@
       <c r="I26" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L26" s="7"/>
-    </row>
-    <row r="27" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J26" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M26" s="7"/>
+    </row>
+    <row r="27" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="8" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
         <v>15</v>
@@ -1534,61 +1635,63 @@
         <v>10</v>
       </c>
       <c r="E27" s="17">
-        <v>50</v>
-      </c>
-      <c r="F27" s="17">
-        <v>10</v>
-      </c>
-      <c r="G27" s="17">
-        <v>10</v>
-      </c>
-      <c r="H27" s="17">
-        <v>10</v>
+        <v>0</v>
+      </c>
+      <c r="F27" s="17"/>
+      <c r="G27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="17" t="s">
+        <v>16</v>
       </c>
       <c r="I27" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L27" s="7"/>
-    </row>
-    <row r="28" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J27" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M27" s="7"/>
+    </row>
+    <row r="28" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="D28" s="17">
         <v>10</v>
       </c>
       <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L28" s="7"/>
-    </row>
-    <row r="29" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>50</v>
+      </c>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17">
+        <v>10</v>
+      </c>
+      <c r="H28" s="17">
+        <v>10</v>
+      </c>
+      <c r="I28" s="17">
+        <v>10</v>
+      </c>
+      <c r="J28" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M28" s="7"/>
+    </row>
+    <row r="29" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="8" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="B29" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>55</v>
+        <v>6</v>
       </c>
       <c r="D29" s="17">
         <v>10</v>
@@ -1596,9 +1699,7 @@
       <c r="E29" s="17">
         <v>0</v>
       </c>
-      <c r="F29" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="F29" s="17"/>
       <c r="G29" s="17" t="s">
         <v>16</v>
       </c>
@@ -1608,27 +1709,28 @@
       <c r="I29" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L29" s="7"/>
-    </row>
-    <row r="30" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J29" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M29" s="7"/>
+    </row>
+    <row r="30" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="8" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D30" s="17">
         <v>10</v>
       </c>
       <c r="E30" s="17">
-        <v>50</v>
-      </c>
-      <c r="F30" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="F30" s="17"/>
       <c r="G30" s="17" t="s">
         <v>16</v>
       </c>
@@ -1638,27 +1740,28 @@
       <c r="I30" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L30" s="7"/>
-    </row>
-    <row r="31" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J30" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M30" s="7"/>
+    </row>
+    <row r="31" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D31" s="17">
         <v>10</v>
       </c>
       <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F31" s="17"/>
       <c r="G31" s="17" t="s">
         <v>16</v>
       </c>
@@ -1668,27 +1771,28 @@
       <c r="I31" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L31" s="7"/>
-    </row>
-    <row r="32" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J31" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M31" s="7"/>
+    </row>
+    <row r="32" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="8" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C32" s="9" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="D32" s="17">
         <v>10</v>
       </c>
       <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17" t="s">
-        <v>16</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F32" s="17"/>
       <c r="G32" s="17" t="s">
         <v>16</v>
       </c>
@@ -1698,11 +1802,14 @@
       <c r="I32" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L32" s="7"/>
-    </row>
-    <row r="33" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M32" s="7"/>
+    </row>
+    <row r="33" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B33" s="9" t="s">
         <v>15</v>
@@ -1716,9 +1823,7 @@
       <c r="E33" s="17">
         <v>0</v>
       </c>
-      <c r="F33" s="17" t="s">
-        <v>16</v>
-      </c>
+      <c r="F33" s="17"/>
       <c r="G33" s="17" t="s">
         <v>16</v>
       </c>
@@ -1728,57 +1833,59 @@
       <c r="I33" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="L33" s="7"/>
-    </row>
-    <row r="34" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M33" s="7"/>
+    </row>
+    <row r="34" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="8" t="s">
-        <v>47</v>
+        <v>33</v>
       </c>
       <c r="B34" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="D34" s="17">
         <v>10</v>
       </c>
       <c r="E34" s="17">
-        <v>50</v>
-      </c>
-      <c r="F34" s="17">
-        <v>0</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="L34" s="7"/>
-    </row>
-    <row r="35" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+        <v>0</v>
+      </c>
+      <c r="F34" s="17"/>
+      <c r="G34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="M34" s="7"/>
+    </row>
+    <row r="35" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="8" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>8</v>
+        <v>48</v>
       </c>
       <c r="D35" s="17">
         <v>10</v>
       </c>
       <c r="E35" s="17">
-        <v>40</v>
-      </c>
-      <c r="F35" s="17">
-        <v>0</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="F35" s="17"/>
       <c r="G35" s="17">
         <v>0</v>
       </c>
@@ -1788,11 +1895,14 @@
       <c r="I35" s="17">
         <v>0</v>
       </c>
-      <c r="L35" s="7"/>
-    </row>
-    <row r="36" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J35" s="17">
+        <v>0</v>
+      </c>
+      <c r="M35" s="7"/>
+    </row>
+    <row r="36" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>15</v>
@@ -1804,11 +1914,9 @@
         <v>10</v>
       </c>
       <c r="E36" s="17">
-        <v>50</v>
-      </c>
-      <c r="F36" s="17">
-        <v>0</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="F36" s="17"/>
       <c r="G36" s="17">
         <v>0</v>
       </c>
@@ -1818,17 +1926,20 @@
       <c r="I36" s="17">
         <v>0</v>
       </c>
-      <c r="L36" s="7"/>
-    </row>
-    <row r="37" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J36" s="17">
+        <v>0</v>
+      </c>
+      <c r="M36" s="7"/>
+    </row>
+    <row r="37" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>55</v>
+        <v>8</v>
       </c>
       <c r="D37" s="17">
         <v>10</v>
@@ -1836,9 +1947,7 @@
       <c r="E37" s="17">
         <v>50</v>
       </c>
-      <c r="F37" s="17">
-        <v>0</v>
-      </c>
+      <c r="F37" s="17"/>
       <c r="G37" s="17">
         <v>0</v>
       </c>
@@ -1848,17 +1957,20 @@
       <c r="I37" s="17">
         <v>0</v>
       </c>
-      <c r="L37" s="7"/>
-    </row>
-    <row r="38" spans="1:12" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J37" s="17">
+        <v>0</v>
+      </c>
+      <c r="M37" s="7"/>
+    </row>
+    <row r="38" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B38" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>8</v>
+        <v>55</v>
       </c>
       <c r="D38" s="17">
         <v>10</v>
@@ -1866,9 +1978,7 @@
       <c r="E38" s="17">
         <v>50</v>
       </c>
-      <c r="F38" s="17">
-        <v>0</v>
-      </c>
+      <c r="F38" s="17"/>
       <c r="G38" s="17">
         <v>0</v>
       </c>
@@ -1878,109 +1988,322 @@
       <c r="I38" s="17">
         <v>0</v>
       </c>
-      <c r="L38" s="7"/>
-    </row>
-    <row r="39" spans="1:12" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A39" s="8"/>
-      <c r="B39" s="9"/>
-      <c r="C39" s="9"/>
-      <c r="D39" s="16" t="s">
-        <v>16</v>
+      <c r="J38" s="17">
+        <v>0</v>
+      </c>
+      <c r="M38" s="7"/>
+    </row>
+    <row r="39" spans="1:13" ht="25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="17">
+        <v>10</v>
       </c>
       <c r="E39" s="17">
-        <v>0</v>
-      </c>
-      <c r="F39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="I39" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17">
+        <v>0</v>
+      </c>
+      <c r="H39" s="17">
+        <v>0</v>
+      </c>
+      <c r="I39" s="17">
+        <v>0</v>
+      </c>
+      <c r="J39" s="17">
+        <v>0</v>
+      </c>
+      <c r="M39" s="7"/>
+    </row>
+    <row r="40" spans="1:13" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="8"/>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E40" s="17">
+        <v>0</v>
+      </c>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" s="17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A41" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="B40" s="12" t="s">
+      <c r="B41" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="21"/>
-      <c r="D40" s="18">
-        <f>SUM(D16:D39)</f>
+      <c r="C41" s="21"/>
+      <c r="D41" s="18">
+        <f>SUM(D17:D40)</f>
         <v>220</v>
       </c>
-      <c r="E40" s="18">
-        <f>SUM(E16:E39)</f>
-        <v>515</v>
-      </c>
-      <c r="F40" s="31">
-        <f>SUM(G16:G39)</f>
+      <c r="E41" s="18">
+        <f>SUM(E17:E40)</f>
+        <v>615</v>
+      </c>
+      <c r="F41" s="18">
+        <v>-390</v>
+      </c>
+      <c r="G41" s="31">
+        <f>SUM(H17:H40)</f>
         <v>20</v>
       </c>
-      <c r="G40" s="31">
-        <f>SUM(G16:G39)</f>
+      <c r="H41" s="31">
+        <f>SUM(H17:H40)</f>
         <v>20</v>
       </c>
-      <c r="H40" s="31">
-        <f>SUM(H16:H39)</f>
+      <c r="I41" s="31">
+        <f>SUM(I17:I40)</f>
         <v>20</v>
       </c>
-      <c r="I40" s="31">
-        <f>SUM(I16:I39)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" ht="23" thickTop="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="1"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="5"/>
-      <c r="D41" s="1"/>
-      <c r="E41" s="23"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="23"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="23"/>
-    </row>
-    <row r="42" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A42" s="1"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="5"/>
-      <c r="D42" s="1"/>
-      <c r="E42" s="23"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="23"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="23"/>
-    </row>
-    <row r="43" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A43" s="1"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="1"/>
-      <c r="E43" s="23"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="23"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="23"/>
-    </row>
-    <row r="44" spans="1:12" ht="22" x14ac:dyDescent="0.3">
-      <c r="A44" s="1"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="23"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="23"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="23"/>
-    </row>
+      <c r="J41" s="31">
+        <f>SUM(J17:J40)</f>
+        <v>0</v>
+      </c>
+      <c r="K41" s="18">
+        <f>SUM(D41:J41)</f>
+        <v>505</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" s="3" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="14"/>
+      <c r="B42" s="15"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E42" s="22">
+        <v>0</v>
+      </c>
+      <c r="F42" s="22"/>
+      <c r="G42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" s="3" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="14"/>
+      <c r="B43" s="15"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E43" s="22">
+        <v>0</v>
+      </c>
+      <c r="F43" s="22"/>
+      <c r="G43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J43" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" s="3" customFormat="1" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A44" s="14"/>
+      <c r="B44" s="15"/>
+      <c r="C44" s="35" t="s">
+        <v>58</v>
+      </c>
+      <c r="D44" s="36"/>
+      <c r="E44" s="37"/>
+      <c r="F44" s="32"/>
+      <c r="G44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J44" s="16" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" s="3" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A45" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C45" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D45" s="10">
+        <v>10</v>
+      </c>
+      <c r="E45" s="10">
+        <v>100</v>
+      </c>
+      <c r="F45" s="34"/>
+      <c r="G45" s="10">
+        <v>10</v>
+      </c>
+      <c r="H45" s="10">
+        <v>10</v>
+      </c>
+      <c r="I45" s="10">
+        <v>10</v>
+      </c>
+      <c r="J45" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" s="3" customFormat="1" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A46" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C46" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46" s="10">
+        <v>10</v>
+      </c>
+      <c r="E46" s="10">
+        <v>100</v>
+      </c>
+      <c r="F46" s="34"/>
+      <c r="G46" s="10">
+        <v>10</v>
+      </c>
+      <c r="H46" s="10">
+        <v>10</v>
+      </c>
+      <c r="I46" s="10">
+        <v>10</v>
+      </c>
+      <c r="J46" s="10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" ht="29" thickTop="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A47" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B47" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47" s="21"/>
+      <c r="D47" s="33">
+        <f>SUM(D45:D46)</f>
+        <v>20</v>
+      </c>
+      <c r="E47" s="33">
+        <f>SUM(E45:E46)</f>
+        <v>200</v>
+      </c>
+      <c r="F47" s="33">
+        <v>-110</v>
+      </c>
+      <c r="G47" s="33">
+        <f>SUM(G45:G46)</f>
+        <v>20</v>
+      </c>
+      <c r="H47" s="33">
+        <f>SUM(H45:H46)</f>
+        <v>20</v>
+      </c>
+      <c r="I47" s="33">
+        <f>SUM(I45:I46)</f>
+        <v>20</v>
+      </c>
+      <c r="J47" s="33">
+        <f>SUM(J45:J46)</f>
+        <v>20</v>
+      </c>
+      <c r="K47" s="33">
+        <f>SUM(D47:J47)</f>
+        <v>190</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" ht="23" thickTop="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="1"/>
+      <c r="B48" s="5"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="23"/>
+      <c r="G48" s="23"/>
+      <c r="H48" s="23"/>
+      <c r="I48" s="23"/>
+      <c r="J48" s="23"/>
+    </row>
+    <row r="49" spans="1:10" ht="22" x14ac:dyDescent="0.3">
+      <c r="A49" s="1"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="23"/>
+      <c r="H49" s="23"/>
+      <c r="I49" s="23"/>
+      <c r="J49" s="23"/>
+    </row>
+    <row r="50" spans="1:10" ht="23" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A50" s="1"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="23"/>
+      <c r="H50" s="23"/>
+      <c r="I50" s="23"/>
+      <c r="J50" s="23"/>
+    </row>
+    <row r="51" spans="1:10" ht="24" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="J51" s="10"/>
+    </row>
+    <row r="52" spans="1:10" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:E2"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C44:E44"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/assets/Excells/CotisationSpeciale1.xlsx
+++ b/assets/Excells/CotisationSpeciale1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bwamutalamiantezila/Documents/LukalaPhoto/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B7EEC62-4E74-6347-B1EB-34312576600F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1C0EDE5-72C3-EC46-B54D-7BA5DBE672A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16240" xr2:uid="{68E375EF-7E04-A04A-8B5D-972BEA3F72AD}"/>
   </bookViews>
@@ -224,7 +224,7 @@
     <t>DRC</t>
   </si>
   <si>
-    <t>Depenses</t>
+    <t>Dépenses</t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
   <dimension ref="A1:M52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
